--- a/May 2022 Votes.xlsx
+++ b/May 2022 Votes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robschoen/Dropbox/Brookline/Nov2025/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB511F8-EC0D-704E-89C6-950ECD9BE9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBB7206-5EA2-0D41-A01C-EEBF1F6F867C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8160" yWindow="2600" windowWidth="50200" windowHeight="21020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14309" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14314" uniqueCount="362">
   <si>
     <t>YES</t>
   </si>
@@ -1105,6 +1105,21 @@
   <si>
     <t>Resolution regarding calling for an end to the US embargo of Cuba</t>
   </si>
+  <si>
+    <t>Night 1</t>
+  </si>
+  <si>
+    <t>Night 3</t>
+  </si>
+  <si>
+    <t>Night 4</t>
+  </si>
+  <si>
+    <t>Night 5</t>
+  </si>
+  <si>
+    <t>Night 6</t>
+  </si>
 </sst>
 </file>
 
@@ -1392,7 +1407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1410,14 +1425,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1452,6 +1462,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1769,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81F0383-E52B-CB40-AA51-BC1E4349799B}">
   <dimension ref="A1:BG273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1779,360 +1795,377 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.15">
+      <c r="C2" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="U2" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z2" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="AJ2" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="AT2" s="33" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:59" ht="119" x14ac:dyDescent="0.2">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="O3" s="18" t="s">
+      <c r="O3" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="S3" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="U3" s="18" t="s">
+      <c r="U3" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="V3" s="18" t="s">
+      <c r="V3" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="X3" s="18" t="s">
+      <c r="X3" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="Z3" s="18" t="s">
+      <c r="Z3" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="AA3" s="18" t="s">
+      <c r="AA3" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="AB3" s="18" t="s">
+      <c r="AB3" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="AC3" s="18" t="s">
+      <c r="AC3" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="AD3" s="18" t="s">
+      <c r="AD3" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="AE3" s="18" t="s">
+      <c r="AE3" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="AF3" s="18" t="s">
+      <c r="AF3" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="AG3" s="18" t="s">
+      <c r="AG3" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="AH3" s="18" t="s">
+      <c r="AH3" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="AI3" s="18" t="s">
+      <c r="AI3" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="AJ3" s="18" t="s">
+      <c r="AJ3" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="AK3" s="18" t="s">
+      <c r="AK3" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="AL3" s="18" t="s">
+      <c r="AL3" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="AM3" s="18" t="s">
+      <c r="AM3" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="AN3" s="18" t="s">
+      <c r="AN3" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="AO3" s="18" t="s">
+      <c r="AO3" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="AP3" s="18" t="s">
+      <c r="AP3" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="AQ3" s="18" t="s">
+      <c r="AQ3" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="AR3" s="18" t="s">
+      <c r="AR3" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="AS3" s="18" t="s">
+      <c r="AS3" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="AT3" s="18" t="s">
+      <c r="AT3" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="AU3" s="18" t="s">
+      <c r="AU3" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="AV3" s="18" t="s">
+      <c r="AV3" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="AW3" s="18" t="s">
+      <c r="AW3" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="AX3" s="18" t="s">
+      <c r="AX3" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="AY3" s="18" t="s">
+      <c r="AY3" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="AZ3" s="18" t="s">
+      <c r="AZ3" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="BA3" s="18" t="s">
+      <c r="BA3" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="BB3" s="18" t="s">
+      <c r="BB3" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="BC3" s="18" t="s">
+      <c r="BC3" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="BD3" s="18" t="s">
+      <c r="BD3" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="BE3" s="18" t="s">
+      <c r="BE3" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="BF3" s="18" t="s">
+      <c r="BF3" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="BG3" s="18" t="s">
+      <c r="BG3" s="15" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:59" ht="372" x14ac:dyDescent="0.2">
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19" t="s">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19" t="s">
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="27" t="s">
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="AC4" s="27" t="s">
+      <c r="AC4" s="24" t="s">
         <v>339</v>
       </c>
-      <c r="AD4" s="27" t="s">
+      <c r="AD4" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="27" t="s">
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="27" t="s">
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="AI4" s="27" t="s">
+      <c r="AI4" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19" t="s">
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="16"/>
+      <c r="AL4" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19" t="s">
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="AO4" s="19" t="s">
+      <c r="AO4" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="AP4" s="19" t="s">
+      <c r="AP4" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19" t="s">
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="AT4" s="27" t="s">
+      <c r="AT4" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="27" t="s">
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="27" t="s">
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="27" t="s">
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="27" t="s">
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="27" t="s">
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="27" t="s">
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="BG4" s="27" t="s">
+      <c r="BG4" s="24" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:59" ht="14" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="12"/>
-      <c r="BA5" s="12"/>
-      <c r="BB5" s="12"/>
-      <c r="BC5" s="12"/>
-      <c r="BD5" s="12"/>
-      <c r="BE5" s="12"/>
-      <c r="BF5" s="12"/>
-      <c r="BG5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+      <c r="AJ5" s="10"/>
+      <c r="AK5" s="10"/>
+      <c r="AL5" s="10"/>
+      <c r="AM5" s="10"/>
+      <c r="AN5" s="10"/>
+      <c r="AO5" s="10"/>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" s="10"/>
+      <c r="AR5" s="10"/>
+      <c r="AS5" s="10"/>
+      <c r="AT5" s="10"/>
+      <c r="AU5" s="10"/>
+      <c r="AV5" s="10"/>
+      <c r="AW5" s="10"/>
+      <c r="AX5" s="10"/>
+      <c r="AY5" s="10"/>
+      <c r="AZ5" s="10"/>
+      <c r="BA5" s="10"/>
+      <c r="BB5" s="10"/>
+      <c r="BC5" s="10"/>
+      <c r="BD5" s="10"/>
+      <c r="BE5" s="10"/>
+      <c r="BF5" s="10"/>
+      <c r="BG5" s="10"/>
     </row>
     <row r="6" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
@@ -2291,13 +2324,13 @@
       <c r="AZ6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BA6" s="12"/>
-      <c r="BB6" s="12"/>
-      <c r="BC6" s="12"/>
-      <c r="BD6" s="12"/>
-      <c r="BE6" s="12"/>
-      <c r="BF6" s="12"/>
-      <c r="BG6" s="12"/>
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10"/>
+      <c r="BC6" s="10"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10"/>
+      <c r="BG6" s="10"/>
     </row>
     <row r="7" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2456,13 +2489,13 @@
       <c r="AZ7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="12"/>
-      <c r="BC7" s="12"/>
-      <c r="BD7" s="12"/>
-      <c r="BE7" s="12"/>
-      <c r="BF7" s="12"/>
-      <c r="BG7" s="12"/>
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10"/>
+      <c r="BG7" s="10"/>
     </row>
     <row r="8" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -2600,7 +2633,7 @@
       <c r="AS8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT8" s="12"/>
+      <c r="AT8" s="10"/>
       <c r="AU8" s="7" t="s">
         <v>1</v>
       </c>
@@ -3069,7 +3102,7 @@
       <c r="W11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="X11" s="12"/>
+      <c r="X11" s="10"/>
       <c r="Y11" s="6" t="s">
         <v>0</v>
       </c>
@@ -3148,7 +3181,7 @@
       <c r="AX11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AY11" s="12"/>
+      <c r="AY11" s="10"/>
       <c r="AZ11" s="7" t="s">
         <v>1</v>
       </c>
@@ -3360,8 +3393,8 @@
       <c r="B13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
       <c r="E13" s="3" t="s">
         <v>0</v>
       </c>
@@ -3371,7 +3404,7 @@
       <c r="G13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="20"/>
+      <c r="H13" s="17"/>
       <c r="I13" s="3" t="s">
         <v>0</v>
       </c>
@@ -3483,9 +3516,9 @@
       <c r="AS13" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="12"/>
-      <c r="AV13" s="12"/>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
       <c r="AW13" s="6" t="s">
         <v>0</v>
       </c>
@@ -3516,7 +3549,7 @@
       <c r="BF13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG13" s="12"/>
+      <c r="BG13" s="10"/>
     </row>
     <row r="14" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -3681,11 +3714,11 @@
       <c r="BB14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC14" s="12"/>
-      <c r="BD14" s="12"/>
-      <c r="BE14" s="12"/>
-      <c r="BF14" s="12"/>
-      <c r="BG14" s="12"/>
+      <c r="BC14" s="10"/>
+      <c r="BD14" s="10"/>
+      <c r="BE14" s="10"/>
+      <c r="BF14" s="10"/>
+      <c r="BG14" s="10"/>
     </row>
     <row r="15" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -3876,10 +3909,10 @@
       <c r="C16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
       <c r="H16" s="5" t="s">
         <v>2</v>
       </c>
@@ -3919,7 +3952,7 @@
       <c r="T16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U16" s="12"/>
+      <c r="U16" s="10"/>
       <c r="V16" s="6" t="s">
         <v>0</v>
       </c>
@@ -3932,7 +3965,7 @@
       <c r="Y16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Z16" s="28"/>
+      <c r="Z16" s="25"/>
       <c r="AA16" s="6" t="s">
         <v>0</v>
       </c>
@@ -3945,7 +3978,7 @@
       <c r="AD16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AE16" s="28"/>
+      <c r="AE16" s="25"/>
       <c r="AF16" s="6" t="s">
         <v>0</v>
       </c>
@@ -4053,7 +4086,7 @@
       <c r="G17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="20"/>
+      <c r="H17" s="17"/>
       <c r="I17" s="5" t="s">
         <v>2</v>
       </c>
@@ -4132,7 +4165,7 @@
       <c r="AH17" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AI17" s="28"/>
+      <c r="AI17" s="25"/>
       <c r="AJ17" s="6" t="s">
         <v>0</v>
       </c>
@@ -4369,13 +4402,13 @@
       <c r="BB18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC18" s="12"/>
+      <c r="BC18" s="10"/>
       <c r="BD18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BE18" s="12"/>
-      <c r="BF18" s="12"/>
-      <c r="BG18" s="12"/>
+      <c r="BE18" s="10"/>
+      <c r="BF18" s="10"/>
+      <c r="BG18" s="10"/>
     </row>
     <row r="19" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -4453,7 +4486,7 @@
       <c r="Y19" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Z19" s="28"/>
+      <c r="Z19" s="25"/>
       <c r="AA19" s="7" t="s">
         <v>1</v>
       </c>
@@ -4723,9 +4756,9 @@
       <c r="BD20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BE20" s="12"/>
-      <c r="BF20" s="12"/>
-      <c r="BG20" s="12"/>
+      <c r="BE20" s="10"/>
+      <c r="BF20" s="10"/>
+      <c r="BG20" s="10"/>
     </row>
     <row r="21" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -5110,7 +5143,7 @@
       <c r="H23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I23" s="20"/>
+      <c r="I23" s="17"/>
       <c r="J23" s="3" t="s">
         <v>0</v>
       </c>
@@ -5159,7 +5192,7 @@
       <c r="Y23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Z23" s="28"/>
+      <c r="Z23" s="25"/>
       <c r="AA23" s="6" t="s">
         <v>0</v>
       </c>
@@ -5199,7 +5232,7 @@
       <c r="AM23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AN23" s="12"/>
+      <c r="AN23" s="10"/>
       <c r="AO23" s="6" t="s">
         <v>0</v>
       </c>
@@ -5498,7 +5531,7 @@
       <c r="T25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U25" s="12"/>
+      <c r="U25" s="10"/>
       <c r="V25" s="7" t="s">
         <v>1</v>
       </c>
@@ -5508,7 +5541,7 @@
       <c r="X25" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Y25" s="12"/>
+      <c r="Y25" s="10"/>
       <c r="Z25" s="6" t="s">
         <v>0</v>
       </c>
@@ -5539,25 +5572,25 @@
       <c r="AI25" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ25" s="12"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="12"/>
-      <c r="AN25" s="12"/>
-      <c r="AO25" s="12"/>
-      <c r="AP25" s="12"/>
-      <c r="AQ25" s="12"/>
-      <c r="AR25" s="12"/>
-      <c r="AS25" s="12"/>
-      <c r="AT25" s="12"/>
-      <c r="AU25" s="12"/>
-      <c r="AV25" s="12"/>
-      <c r="AW25" s="12"/>
-      <c r="AX25" s="12"/>
-      <c r="AY25" s="12"/>
-      <c r="AZ25" s="12"/>
-      <c r="BA25" s="12"/>
-      <c r="BB25" s="12"/>
+      <c r="AJ25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="10"/>
+      <c r="AR25" s="10"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10"/>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
       <c r="BC25" s="6" t="s">
         <v>0</v>
       </c>
@@ -5570,7 +5603,7 @@
       <c r="BF25" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG25" s="12"/>
+      <c r="BG25" s="10"/>
     </row>
     <row r="26" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -5872,7 +5905,7 @@
       <c r="AN27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AO27" s="12"/>
+      <c r="AO27" s="10"/>
       <c r="AP27" s="6" t="s">
         <v>0</v>
       </c>
@@ -5903,7 +5936,7 @@
       <c r="AY27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AZ27" s="12"/>
+      <c r="AZ27" s="10"/>
       <c r="BA27" s="7" t="s">
         <v>1</v>
       </c>
@@ -6315,7 +6348,7 @@
       <c r="J30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K30" s="20"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="3" t="s">
         <v>0</v>
       </c>
@@ -6406,7 +6439,7 @@
       <c r="AO30" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AP30" s="12"/>
+      <c r="AP30" s="10"/>
       <c r="AQ30" s="6" t="s">
         <v>0</v>
       </c>
@@ -6526,9 +6559,9 @@
       <c r="V31" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
       <c r="Z31" s="6" t="s">
         <v>0</v>
       </c>
@@ -6628,7 +6661,7 @@
       <c r="BF31" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG31" s="12"/>
+      <c r="BG31" s="10"/>
     </row>
     <row r="32" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
@@ -6972,11 +7005,11 @@
       <c r="BB33" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC33" s="12"/>
-      <c r="BD33" s="12"/>
-      <c r="BE33" s="12"/>
-      <c r="BF33" s="12"/>
-      <c r="BG33" s="12"/>
+      <c r="BC33" s="10"/>
+      <c r="BD33" s="10"/>
+      <c r="BE33" s="10"/>
+      <c r="BF33" s="10"/>
+      <c r="BG33" s="10"/>
     </row>
     <row r="34" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
@@ -7024,11 +7057,11 @@
       <c r="O34" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
       <c r="U34" s="6" t="s">
         <v>0</v>
       </c>
@@ -7838,7 +7871,7 @@
       <c r="AY38" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AZ38" s="12"/>
+      <c r="AZ38" s="10"/>
       <c r="BA38" s="8" t="s">
         <v>2</v>
       </c>
@@ -7997,15 +8030,15 @@
       <c r="AS39" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT39" s="12"/>
-      <c r="AU39" s="12"/>
-      <c r="AV39" s="12"/>
-      <c r="AW39" s="12"/>
-      <c r="AX39" s="12"/>
-      <c r="AY39" s="12"/>
-      <c r="AZ39" s="12"/>
-      <c r="BA39" s="12"/>
-      <c r="BB39" s="12"/>
+      <c r="AT39" s="10"/>
+      <c r="AU39" s="10"/>
+      <c r="AV39" s="10"/>
+      <c r="AW39" s="10"/>
+      <c r="AX39" s="10"/>
+      <c r="AY39" s="10"/>
+      <c r="AZ39" s="10"/>
+      <c r="BA39" s="10"/>
+      <c r="BB39" s="10"/>
       <c r="BC39" s="6" t="s">
         <v>0</v>
       </c>
@@ -8158,15 +8191,15 @@
       <c r="AS40" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT40" s="12"/>
-      <c r="AU40" s="12"/>
-      <c r="AV40" s="12"/>
-      <c r="AW40" s="12"/>
-      <c r="AX40" s="12"/>
-      <c r="AY40" s="12"/>
-      <c r="AZ40" s="12"/>
-      <c r="BA40" s="12"/>
-      <c r="BB40" s="12"/>
+      <c r="AT40" s="10"/>
+      <c r="AU40" s="10"/>
+      <c r="AV40" s="10"/>
+      <c r="AW40" s="10"/>
+      <c r="AX40" s="10"/>
+      <c r="AY40" s="10"/>
+      <c r="AZ40" s="10"/>
+      <c r="BA40" s="10"/>
+      <c r="BB40" s="10"/>
       <c r="BC40" s="6" t="s">
         <v>0</v>
       </c>
@@ -8346,11 +8379,11 @@
       <c r="BB41" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC41" s="12"/>
-      <c r="BD41" s="12"/>
-      <c r="BE41" s="12"/>
-      <c r="BF41" s="12"/>
-      <c r="BG41" s="12"/>
+      <c r="BC41" s="10"/>
+      <c r="BD41" s="10"/>
+      <c r="BE41" s="10"/>
+      <c r="BF41" s="10"/>
+      <c r="BG41" s="10"/>
     </row>
     <row r="42" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -8956,7 +8989,7 @@
       <c r="V45" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W45" s="12"/>
+      <c r="W45" s="10"/>
       <c r="X45" s="6" t="s">
         <v>0</v>
       </c>
@@ -8975,14 +9008,14 @@
       <c r="AC45" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AD45" s="28"/>
+      <c r="AD45" s="25"/>
       <c r="AE45" s="6" t="s">
         <v>0</v>
       </c>
       <c r="AF45" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AG45" s="28"/>
+      <c r="AG45" s="25"/>
       <c r="AH45" s="6" t="s">
         <v>0</v>
       </c>
@@ -9213,7 +9246,7 @@
       <c r="AX46" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AY46" s="12"/>
+      <c r="AY46" s="10"/>
       <c r="AZ46" s="7" t="s">
         <v>1</v>
       </c>
@@ -9390,11 +9423,11 @@
       <c r="AX47" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AY47" s="12"/>
-      <c r="AZ47" s="12"/>
-      <c r="BA47" s="12"/>
-      <c r="BB47" s="12"/>
-      <c r="BC47" s="12"/>
+      <c r="AY47" s="10"/>
+      <c r="AZ47" s="10"/>
+      <c r="BA47" s="10"/>
+      <c r="BB47" s="10"/>
+      <c r="BC47" s="10"/>
       <c r="BD47" s="7" t="s">
         <v>1</v>
       </c>
@@ -9756,9 +9789,9 @@
       <c r="BD49" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="BE49" s="12"/>
-      <c r="BF49" s="12"/>
-      <c r="BG49" s="12"/>
+      <c r="BE49" s="10"/>
+      <c r="BF49" s="10"/>
+      <c r="BG49" s="10"/>
     </row>
     <row r="50" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
@@ -10003,7 +10036,7 @@
       <c r="U51" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="V51" s="12"/>
+      <c r="V51" s="10"/>
       <c r="W51" s="7" t="s">
         <v>1</v>
       </c>
@@ -10055,8 +10088,8 @@
       <c r="AM51" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AN51" s="12"/>
-      <c r="AO51" s="12"/>
+      <c r="AN51" s="10"/>
+      <c r="AO51" s="10"/>
       <c r="AP51" s="6" t="s">
         <v>0</v>
       </c>
@@ -10275,8 +10308,8 @@
       <c r="BB52" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC52" s="12"/>
-      <c r="BD52" s="12"/>
+      <c r="BC52" s="10"/>
+      <c r="BD52" s="10"/>
       <c r="BE52" s="6" t="s">
         <v>0</v>
       </c>
@@ -10679,7 +10712,7 @@
       <c r="K55" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L55" s="20"/>
+      <c r="L55" s="17"/>
       <c r="M55" s="3" t="s">
         <v>0</v>
       </c>
@@ -10713,7 +10746,7 @@
       <c r="W55" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X55" s="12"/>
+      <c r="X55" s="10"/>
       <c r="Y55" s="7" t="s">
         <v>1</v>
       </c>
@@ -10744,11 +10777,11 @@
       <c r="AH55" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AI55" s="28"/>
+      <c r="AI55" s="25"/>
       <c r="AJ55" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AK55" s="12"/>
+      <c r="AK55" s="10"/>
       <c r="AL55" s="7" t="s">
         <v>1</v>
       </c>
@@ -10776,10 +10809,10 @@
       <c r="AT55" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AU55" s="12"/>
-      <c r="AV55" s="12"/>
-      <c r="AW55" s="12"/>
-      <c r="AX55" s="12"/>
+      <c r="AU55" s="10"/>
+      <c r="AV55" s="10"/>
+      <c r="AW55" s="10"/>
+      <c r="AX55" s="10"/>
       <c r="AY55" s="7" t="s">
         <v>1</v>
       </c>
@@ -10997,10 +11030,10 @@
       <c r="C57" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
       <c r="H57" s="3" t="s">
         <v>0</v>
       </c>
@@ -11040,45 +11073,45 @@
       <c r="T57" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="28"/>
-      <c r="AA57" s="28"/>
-      <c r="AB57" s="28"/>
-      <c r="AC57" s="28"/>
-      <c r="AD57" s="28"/>
-      <c r="AE57" s="28"/>
-      <c r="AF57" s="28"/>
-      <c r="AG57" s="28"/>
-      <c r="AH57" s="28"/>
-      <c r="AI57" s="28"/>
-      <c r="AJ57" s="12"/>
-      <c r="AK57" s="12"/>
-      <c r="AL57" s="12"/>
-      <c r="AM57" s="12"/>
-      <c r="AN57" s="12"/>
-      <c r="AO57" s="12"/>
-      <c r="AP57" s="12"/>
-      <c r="AQ57" s="12"/>
-      <c r="AR57" s="12"/>
-      <c r="AS57" s="12"/>
-      <c r="AT57" s="12"/>
-      <c r="AU57" s="12"/>
-      <c r="AV57" s="12"/>
-      <c r="AW57" s="12"/>
-      <c r="AX57" s="12"/>
-      <c r="AY57" s="12"/>
-      <c r="AZ57" s="12"/>
-      <c r="BA57" s="12"/>
-      <c r="BB57" s="12"/>
-      <c r="BC57" s="12"/>
-      <c r="BD57" s="12"/>
-      <c r="BE57" s="12"/>
-      <c r="BF57" s="12"/>
-      <c r="BG57" s="12"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="25"/>
+      <c r="AD57" s="25"/>
+      <c r="AE57" s="25"/>
+      <c r="AF57" s="25"/>
+      <c r="AG57" s="25"/>
+      <c r="AH57" s="25"/>
+      <c r="AI57" s="25"/>
+      <c r="AJ57" s="10"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="10"/>
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="10"/>
+      <c r="AO57" s="10"/>
+      <c r="AP57" s="10"/>
+      <c r="AQ57" s="10"/>
+      <c r="AR57" s="10"/>
+      <c r="AS57" s="10"/>
+      <c r="AT57" s="10"/>
+      <c r="AU57" s="10"/>
+      <c r="AV57" s="10"/>
+      <c r="AW57" s="10"/>
+      <c r="AX57" s="10"/>
+      <c r="AY57" s="10"/>
+      <c r="AZ57" s="10"/>
+      <c r="BA57" s="10"/>
+      <c r="BB57" s="10"/>
+      <c r="BC57" s="10"/>
+      <c r="BD57" s="10"/>
+      <c r="BE57" s="10"/>
+      <c r="BF57" s="10"/>
+      <c r="BG57" s="10"/>
     </row>
     <row r="58" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
@@ -11338,9 +11371,9 @@
       <c r="Z59" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AA59" s="28"/>
-      <c r="AB59" s="28"/>
-      <c r="AC59" s="28"/>
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="25"/>
+      <c r="AC59" s="25"/>
       <c r="AD59" s="6" t="s">
         <v>0</v>
       </c>
@@ -11389,7 +11422,7 @@
       <c r="AS59" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT59" s="12"/>
+      <c r="AT59" s="10"/>
       <c r="AU59" s="6" t="s">
         <v>0</v>
       </c>
@@ -11458,7 +11491,7 @@
       <c r="I60" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J60" s="20"/>
+      <c r="J60" s="17"/>
       <c r="K60" s="5" t="s">
         <v>2</v>
       </c>
@@ -11534,27 +11567,27 @@
       <c r="AI60" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ60" s="12"/>
-      <c r="AK60" s="12"/>
-      <c r="AL60" s="12"/>
-      <c r="AM60" s="12"/>
-      <c r="AN60" s="12"/>
-      <c r="AO60" s="12"/>
-      <c r="AP60" s="12"/>
-      <c r="AQ60" s="12"/>
-      <c r="AR60" s="12"/>
-      <c r="AS60" s="12"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="10"/>
+      <c r="AO60" s="10"/>
+      <c r="AP60" s="10"/>
+      <c r="AQ60" s="10"/>
+      <c r="AR60" s="10"/>
+      <c r="AS60" s="10"/>
       <c r="AT60" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AU60" s="12"/>
+      <c r="AU60" s="10"/>
       <c r="AV60" s="6" t="s">
         <v>0</v>
       </c>
       <c r="AW60" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AX60" s="12"/>
+      <c r="AX60" s="10"/>
       <c r="AY60" s="8" t="s">
         <v>2</v>
       </c>
@@ -11838,10 +11871,10 @@
       <c r="Y62" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Z62" s="28"/>
-      <c r="AA62" s="28"/>
-      <c r="AB62" s="28"/>
-      <c r="AC62" s="28"/>
+      <c r="Z62" s="25"/>
+      <c r="AA62" s="25"/>
+      <c r="AB62" s="25"/>
+      <c r="AC62" s="25"/>
       <c r="AD62" s="6" t="s">
         <v>0</v>
       </c>
@@ -11851,17 +11884,17 @@
       <c r="AF62" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AG62" s="28"/>
-      <c r="AH62" s="28"/>
-      <c r="AI62" s="28"/>
-      <c r="AJ62" s="12"/>
-      <c r="AK62" s="12"/>
-      <c r="AL62" s="12"/>
-      <c r="AM62" s="12"/>
+      <c r="AG62" s="25"/>
+      <c r="AH62" s="25"/>
+      <c r="AI62" s="25"/>
+      <c r="AJ62" s="10"/>
+      <c r="AK62" s="10"/>
+      <c r="AL62" s="10"/>
+      <c r="AM62" s="10"/>
       <c r="AN62" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AO62" s="12"/>
+      <c r="AO62" s="10"/>
       <c r="AP62" s="6" t="s">
         <v>0</v>
       </c>
@@ -11942,7 +11975,7 @@
       <c r="H63" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I63" s="20"/>
+      <c r="I63" s="17"/>
       <c r="J63" s="3" t="s">
         <v>0</v>
       </c>
@@ -11958,7 +11991,7 @@
       <c r="N63" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O63" s="20"/>
+      <c r="O63" s="17"/>
       <c r="P63" s="4" t="s">
         <v>1</v>
       </c>
@@ -11983,7 +12016,7 @@
       <c r="W63" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X63" s="12"/>
+      <c r="X63" s="10"/>
       <c r="Y63" s="7" t="s">
         <v>1</v>
       </c>
@@ -12014,11 +12047,11 @@
       <c r="AH63" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AI63" s="28"/>
+      <c r="AI63" s="25"/>
       <c r="AJ63" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AK63" s="12"/>
+      <c r="AK63" s="10"/>
       <c r="AL63" s="7" t="s">
         <v>1</v>
       </c>
@@ -12213,10 +12246,10 @@
       <c r="AP64" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AQ64" s="12"/>
-      <c r="AR64" s="12"/>
-      <c r="AS64" s="12"/>
-      <c r="AT64" s="12"/>
+      <c r="AQ64" s="10"/>
+      <c r="AR64" s="10"/>
+      <c r="AS64" s="10"/>
+      <c r="AT64" s="10"/>
       <c r="AU64" s="6" t="s">
         <v>0</v>
       </c>
@@ -12366,33 +12399,33 @@
       <c r="AJ65" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AK65" s="12"/>
-      <c r="AL65" s="12"/>
-      <c r="AM65" s="12"/>
-      <c r="AN65" s="12"/>
-      <c r="AO65" s="12"/>
-      <c r="AP65" s="12"/>
-      <c r="AQ65" s="12"/>
+      <c r="AK65" s="10"/>
+      <c r="AL65" s="10"/>
+      <c r="AM65" s="10"/>
+      <c r="AN65" s="10"/>
+      <c r="AO65" s="10"/>
+      <c r="AP65" s="10"/>
+      <c r="AQ65" s="10"/>
       <c r="AR65" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AS65" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT65" s="12"/>
-      <c r="AU65" s="12"/>
-      <c r="AV65" s="12"/>
-      <c r="AW65" s="12"/>
-      <c r="AX65" s="12"/>
-      <c r="AY65" s="12"/>
-      <c r="AZ65" s="12"/>
-      <c r="BA65" s="12"/>
-      <c r="BB65" s="12"/>
-      <c r="BC65" s="12"/>
-      <c r="BD65" s="12"/>
-      <c r="BE65" s="12"/>
-      <c r="BF65" s="12"/>
-      <c r="BG65" s="12"/>
+      <c r="AT65" s="10"/>
+      <c r="AU65" s="10"/>
+      <c r="AV65" s="10"/>
+      <c r="AW65" s="10"/>
+      <c r="AX65" s="10"/>
+      <c r="AY65" s="10"/>
+      <c r="AZ65" s="10"/>
+      <c r="BA65" s="10"/>
+      <c r="BB65" s="10"/>
+      <c r="BC65" s="10"/>
+      <c r="BD65" s="10"/>
+      <c r="BE65" s="10"/>
+      <c r="BF65" s="10"/>
+      <c r="BG65" s="10"/>
     </row>
     <row r="66" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
@@ -12888,20 +12921,20 @@
       <c r="AS68" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT68" s="12"/>
-      <c r="AU68" s="12"/>
-      <c r="AV68" s="12"/>
-      <c r="AW68" s="12"/>
-      <c r="AX68" s="12"/>
-      <c r="AY68" s="12"/>
-      <c r="AZ68" s="12"/>
-      <c r="BA68" s="12"/>
-      <c r="BB68" s="12"/>
-      <c r="BC68" s="12"/>
-      <c r="BD68" s="12"/>
-      <c r="BE68" s="12"/>
-      <c r="BF68" s="12"/>
-      <c r="BG68" s="12"/>
+      <c r="AT68" s="10"/>
+      <c r="AU68" s="10"/>
+      <c r="AV68" s="10"/>
+      <c r="AW68" s="10"/>
+      <c r="AX68" s="10"/>
+      <c r="AY68" s="10"/>
+      <c r="AZ68" s="10"/>
+      <c r="BA68" s="10"/>
+      <c r="BB68" s="10"/>
+      <c r="BC68" s="10"/>
+      <c r="BD68" s="10"/>
+      <c r="BE68" s="10"/>
+      <c r="BF68" s="10"/>
+      <c r="BG68" s="10"/>
     </row>
     <row r="69" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
@@ -13257,7 +13290,7 @@
       <c r="BF70" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG70" s="12"/>
+      <c r="BG70" s="10"/>
     </row>
     <row r="71" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
@@ -13741,7 +13774,7 @@
       <c r="AO73" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AP73" s="12"/>
+      <c r="AP73" s="10"/>
       <c r="AQ73" s="6" t="s">
         <v>0</v>
       </c>
@@ -13885,7 +13918,7 @@
       <c r="AD74" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AE74" s="28"/>
+      <c r="AE74" s="25"/>
       <c r="AF74" s="6" t="s">
         <v>0</v>
       </c>
@@ -13937,11 +13970,11 @@
       <c r="AV74" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AW74" s="12"/>
+      <c r="AW74" s="10"/>
       <c r="AX74" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AY74" s="12"/>
+      <c r="AY74" s="10"/>
       <c r="AZ74" s="8" t="s">
         <v>2</v>
       </c>
@@ -13957,7 +13990,7 @@
       <c r="BD74" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BE74" s="12"/>
+      <c r="BE74" s="10"/>
       <c r="BF74" s="7" t="s">
         <v>1</v>
       </c>
@@ -14208,7 +14241,7 @@
       <c r="U76" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="V76" s="12"/>
+      <c r="V76" s="10"/>
       <c r="W76" s="6" t="s">
         <v>0</v>
       </c>
@@ -14260,7 +14293,7 @@
       <c r="AM76" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AN76" s="12"/>
+      <c r="AN76" s="10"/>
       <c r="AO76" s="6" t="s">
         <v>0</v>
       </c>
@@ -14276,7 +14309,7 @@
       <c r="AS76" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT76" s="12"/>
+      <c r="AT76" s="10"/>
       <c r="AU76" s="6" t="s">
         <v>0</v>
       </c>
@@ -14327,7 +14360,7 @@
       <c r="C77" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D77" s="20"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="3" t="s">
         <v>0</v>
       </c>
@@ -14349,7 +14382,7 @@
       <c r="K77" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L77" s="20"/>
+      <c r="L77" s="17"/>
       <c r="M77" s="3" t="s">
         <v>0</v>
       </c>
@@ -14440,7 +14473,7 @@
       <c r="AP77" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AQ77" s="12"/>
+      <c r="AQ77" s="10"/>
       <c r="AR77" s="7" t="s">
         <v>1</v>
       </c>
@@ -14480,11 +14513,11 @@
       <c r="BD77" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="BE77" s="12"/>
+      <c r="BE77" s="10"/>
       <c r="BF77" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG77" s="12"/>
+      <c r="BG77" s="10"/>
     </row>
     <row r="78" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
@@ -14661,7 +14694,7 @@
       <c r="BF78" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG78" s="12"/>
+      <c r="BG78" s="10"/>
     </row>
     <row r="79" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
@@ -14832,9 +14865,9 @@
       <c r="BD79" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BE79" s="12"/>
-      <c r="BF79" s="12"/>
-      <c r="BG79" s="12"/>
+      <c r="BE79" s="10"/>
+      <c r="BF79" s="10"/>
+      <c r="BG79" s="10"/>
     </row>
     <row r="80" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
@@ -15106,7 +15139,7 @@
       <c r="AD81" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AE81" s="28"/>
+      <c r="AE81" s="25"/>
       <c r="AF81" s="6" t="s">
         <v>0</v>
       </c>
@@ -15128,14 +15161,14 @@
       <c r="AL81" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AM81" s="12"/>
+      <c r="AM81" s="10"/>
       <c r="AN81" s="6" t="s">
         <v>0</v>
       </c>
       <c r="AO81" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AP81" s="12"/>
+      <c r="AP81" s="10"/>
       <c r="AQ81" s="6" t="s">
         <v>0</v>
       </c>
@@ -15166,8 +15199,8 @@
       <c r="AZ81" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BA81" s="12"/>
-      <c r="BB81" s="12"/>
+      <c r="BA81" s="10"/>
+      <c r="BB81" s="10"/>
       <c r="BC81" s="6" t="s">
         <v>0</v>
       </c>
@@ -15180,7 +15213,7 @@
       <c r="BF81" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG81" s="12"/>
+      <c r="BG81" s="10"/>
     </row>
     <row r="82" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
@@ -15246,7 +15279,7 @@
       <c r="U82" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="V82" s="12"/>
+      <c r="V82" s="10"/>
       <c r="W82" s="6" t="s">
         <v>0</v>
       </c>
@@ -15307,20 +15340,20 @@
       <c r="AP82" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AQ82" s="12"/>
+      <c r="AQ82" s="10"/>
       <c r="AR82" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AS82" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT82" s="12"/>
-      <c r="AU82" s="12"/>
-      <c r="AV82" s="12"/>
-      <c r="AW82" s="12"/>
-      <c r="AX82" s="12"/>
-      <c r="AY82" s="12"/>
-      <c r="AZ82" s="12"/>
+      <c r="AT82" s="10"/>
+      <c r="AU82" s="10"/>
+      <c r="AV82" s="10"/>
+      <c r="AW82" s="10"/>
+      <c r="AX82" s="10"/>
+      <c r="AY82" s="10"/>
+      <c r="AZ82" s="10"/>
       <c r="BA82" s="6" t="s">
         <v>0</v>
       </c>
@@ -15583,7 +15616,7 @@
       <c r="T84" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U84" s="12"/>
+      <c r="U84" s="10"/>
       <c r="V84" s="6" t="s">
         <v>0</v>
       </c>
@@ -15683,8 +15716,8 @@
       <c r="BB84" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC84" s="12"/>
-      <c r="BD84" s="12"/>
+      <c r="BC84" s="10"/>
+      <c r="BD84" s="10"/>
       <c r="BE84" s="6" t="s">
         <v>0</v>
       </c>
@@ -16338,16 +16371,16 @@
       <c r="AI88" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ88" s="12"/>
-      <c r="AK88" s="12"/>
-      <c r="AL88" s="12"/>
-      <c r="AM88" s="12"/>
-      <c r="AN88" s="12"/>
-      <c r="AO88" s="12"/>
-      <c r="AP88" s="12"/>
-      <c r="AQ88" s="12"/>
-      <c r="AR88" s="12"/>
-      <c r="AS88" s="12"/>
+      <c r="AJ88" s="10"/>
+      <c r="AK88" s="10"/>
+      <c r="AL88" s="10"/>
+      <c r="AM88" s="10"/>
+      <c r="AN88" s="10"/>
+      <c r="AO88" s="10"/>
+      <c r="AP88" s="10"/>
+      <c r="AQ88" s="10"/>
+      <c r="AR88" s="10"/>
+      <c r="AS88" s="10"/>
       <c r="AT88" s="8" t="s">
         <v>2</v>
       </c>
@@ -16398,7 +16431,7 @@
       <c r="B89" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C89" s="20"/>
+      <c r="C89" s="17"/>
       <c r="D89" s="3" t="s">
         <v>0</v>
       </c>
@@ -16686,7 +16719,7 @@
       <c r="AM90" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AN90" s="12"/>
+      <c r="AN90" s="10"/>
       <c r="AO90" s="6" t="s">
         <v>0</v>
       </c>
@@ -17191,13 +17224,13 @@
       <c r="AC93" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AD93" s="28"/>
-      <c r="AE93" s="28"/>
-      <c r="AF93" s="28"/>
-      <c r="AG93" s="28"/>
-      <c r="AH93" s="28"/>
-      <c r="AI93" s="28"/>
-      <c r="AJ93" s="12"/>
+      <c r="AD93" s="25"/>
+      <c r="AE93" s="25"/>
+      <c r="AF93" s="25"/>
+      <c r="AG93" s="25"/>
+      <c r="AH93" s="25"/>
+      <c r="AI93" s="25"/>
+      <c r="AJ93" s="10"/>
       <c r="AK93" s="7" t="s">
         <v>1</v>
       </c>
@@ -17875,8 +17908,8 @@
       <c r="W97" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X97" s="12"/>
-      <c r="Y97" s="12"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="10"/>
       <c r="Z97" s="7" t="s">
         <v>1</v>
       </c>
@@ -18086,16 +18119,16 @@
       <c r="AI98" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ98" s="12"/>
-      <c r="AK98" s="12"/>
-      <c r="AL98" s="12"/>
-      <c r="AM98" s="12"/>
-      <c r="AN98" s="12"/>
-      <c r="AO98" s="12"/>
-      <c r="AP98" s="12"/>
-      <c r="AQ98" s="12"/>
-      <c r="AR98" s="12"/>
-      <c r="AS98" s="12"/>
+      <c r="AJ98" s="10"/>
+      <c r="AK98" s="10"/>
+      <c r="AL98" s="10"/>
+      <c r="AM98" s="10"/>
+      <c r="AN98" s="10"/>
+      <c r="AO98" s="10"/>
+      <c r="AP98" s="10"/>
+      <c r="AQ98" s="10"/>
+      <c r="AR98" s="10"/>
+      <c r="AS98" s="10"/>
       <c r="AT98" s="7" t="s">
         <v>1</v>
       </c>
@@ -18406,12 +18439,12 @@
       <c r="AC100" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AD100" s="28"/>
-      <c r="AE100" s="28"/>
-      <c r="AF100" s="28"/>
-      <c r="AG100" s="28"/>
-      <c r="AH100" s="28"/>
-      <c r="AI100" s="28"/>
+      <c r="AD100" s="25"/>
+      <c r="AE100" s="25"/>
+      <c r="AF100" s="25"/>
+      <c r="AG100" s="25"/>
+      <c r="AH100" s="25"/>
+      <c r="AI100" s="25"/>
       <c r="AJ100" s="6" t="s">
         <v>0</v>
       </c>
@@ -18433,9 +18466,9 @@
       <c r="AP100" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AQ100" s="12"/>
-      <c r="AR100" s="12"/>
-      <c r="AS100" s="12"/>
+      <c r="AQ100" s="10"/>
+      <c r="AR100" s="10"/>
+      <c r="AS100" s="10"/>
       <c r="AT100" s="6" t="s">
         <v>0</v>
       </c>
@@ -18469,9 +18502,9 @@
       <c r="BD100" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="BE100" s="12"/>
-      <c r="BF100" s="12"/>
-      <c r="BG100" s="12"/>
+      <c r="BE100" s="10"/>
+      <c r="BF100" s="10"/>
+      <c r="BG100" s="10"/>
     </row>
     <row r="101" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
@@ -18815,11 +18848,11 @@
       <c r="BB102" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC102" s="12"/>
-      <c r="BD102" s="12"/>
-      <c r="BE102" s="12"/>
-      <c r="BF102" s="12"/>
-      <c r="BG102" s="12"/>
+      <c r="BC102" s="10"/>
+      <c r="BD102" s="10"/>
+      <c r="BE102" s="10"/>
+      <c r="BF102" s="10"/>
+      <c r="BG102" s="10"/>
     </row>
     <row r="103" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
@@ -18882,7 +18915,7 @@
       <c r="T103" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U103" s="12"/>
+      <c r="U103" s="10"/>
       <c r="V103" s="6" t="s">
         <v>0</v>
       </c>
@@ -18994,7 +19027,7 @@
       <c r="BF103" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG103" s="12"/>
+      <c r="BG103" s="10"/>
     </row>
     <row r="104" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -19182,11 +19215,11 @@
       <c r="B105" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
       <c r="H105" s="3" t="s">
         <v>0</v>
       </c>
@@ -19247,7 +19280,7 @@
       <c r="AA105" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AB105" s="28"/>
+      <c r="AB105" s="25"/>
       <c r="AC105" s="7" t="s">
         <v>1</v>
       </c>
@@ -19433,7 +19466,7 @@
       <c r="AD106" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AE106" s="28"/>
+      <c r="AE106" s="25"/>
       <c r="AF106" s="6" t="s">
         <v>0</v>
       </c>
@@ -19705,30 +19738,30 @@
       <c r="B108" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C108" s="20"/>
-      <c r="D108" s="20"/>
-      <c r="E108" s="20"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="20"/>
-      <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
-      <c r="J108" s="20"/>
-      <c r="K108" s="20"/>
-      <c r="L108" s="20"/>
-      <c r="M108" s="20"/>
-      <c r="N108" s="20"/>
-      <c r="O108" s="20"/>
-      <c r="P108" s="20"/>
-      <c r="Q108" s="20"/>
-      <c r="R108" s="20"/>
-      <c r="S108" s="20"/>
-      <c r="T108" s="20"/>
-      <c r="U108" s="12"/>
-      <c r="V108" s="12"/>
-      <c r="W108" s="12"/>
-      <c r="X108" s="12"/>
-      <c r="Y108" s="12"/>
-      <c r="Z108" s="28"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="17"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="10"/>
+      <c r="V108" s="10"/>
+      <c r="W108" s="10"/>
+      <c r="X108" s="10"/>
+      <c r="Y108" s="10"/>
+      <c r="Z108" s="25"/>
       <c r="AA108" s="8" t="s">
         <v>2</v>
       </c>
@@ -19738,36 +19771,36 @@
       <c r="AC108" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AD108" s="28"/>
-      <c r="AE108" s="28"/>
-      <c r="AF108" s="28"/>
-      <c r="AG108" s="28"/>
-      <c r="AH108" s="28"/>
-      <c r="AI108" s="28"/>
-      <c r="AJ108" s="12"/>
-      <c r="AK108" s="12"/>
-      <c r="AL108" s="12"/>
-      <c r="AM108" s="12"/>
-      <c r="AN108" s="12"/>
-      <c r="AO108" s="12"/>
-      <c r="AP108" s="12"/>
-      <c r="AQ108" s="12"/>
-      <c r="AR108" s="12"/>
-      <c r="AS108" s="12"/>
-      <c r="AT108" s="12"/>
-      <c r="AU108" s="12"/>
-      <c r="AV108" s="12"/>
-      <c r="AW108" s="12"/>
-      <c r="AX108" s="12"/>
-      <c r="AY108" s="12"/>
-      <c r="AZ108" s="12"/>
-      <c r="BA108" s="12"/>
-      <c r="BB108" s="12"/>
-      <c r="BC108" s="12"/>
-      <c r="BD108" s="12"/>
-      <c r="BE108" s="12"/>
-      <c r="BF108" s="12"/>
-      <c r="BG108" s="12"/>
+      <c r="AD108" s="25"/>
+      <c r="AE108" s="25"/>
+      <c r="AF108" s="25"/>
+      <c r="AG108" s="25"/>
+      <c r="AH108" s="25"/>
+      <c r="AI108" s="25"/>
+      <c r="AJ108" s="10"/>
+      <c r="AK108" s="10"/>
+      <c r="AL108" s="10"/>
+      <c r="AM108" s="10"/>
+      <c r="AN108" s="10"/>
+      <c r="AO108" s="10"/>
+      <c r="AP108" s="10"/>
+      <c r="AQ108" s="10"/>
+      <c r="AR108" s="10"/>
+      <c r="AS108" s="10"/>
+      <c r="AT108" s="10"/>
+      <c r="AU108" s="10"/>
+      <c r="AV108" s="10"/>
+      <c r="AW108" s="10"/>
+      <c r="AX108" s="10"/>
+      <c r="AY108" s="10"/>
+      <c r="AZ108" s="10"/>
+      <c r="BA108" s="10"/>
+      <c r="BB108" s="10"/>
+      <c r="BC108" s="10"/>
+      <c r="BD108" s="10"/>
+      <c r="BE108" s="10"/>
+      <c r="BF108" s="10"/>
+      <c r="BG108" s="10"/>
     </row>
     <row r="109" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
@@ -19845,13 +19878,13 @@
       <c r="Y109" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Z109" s="28"/>
-      <c r="AA109" s="28"/>
-      <c r="AB109" s="28"/>
-      <c r="AC109" s="28"/>
-      <c r="AD109" s="28"/>
-      <c r="AE109" s="28"/>
-      <c r="AF109" s="28"/>
+      <c r="Z109" s="25"/>
+      <c r="AA109" s="25"/>
+      <c r="AB109" s="25"/>
+      <c r="AC109" s="25"/>
+      <c r="AD109" s="25"/>
+      <c r="AE109" s="25"/>
+      <c r="AF109" s="25"/>
       <c r="AG109" s="7" t="s">
         <v>1</v>
       </c>
@@ -20109,7 +20142,7 @@
       <c r="BF110" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="BG110" s="12"/>
+      <c r="BG110" s="10"/>
     </row>
     <row r="111" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
@@ -20121,7 +20154,7 @@
       <c r="C111" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D111" s="20"/>
+      <c r="D111" s="17"/>
       <c r="E111" s="3" t="s">
         <v>0</v>
       </c>
@@ -20140,7 +20173,7 @@
       <c r="J111" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K111" s="20"/>
+      <c r="K111" s="17"/>
       <c r="L111" s="3" t="s">
         <v>0</v>
       </c>
@@ -20243,9 +20276,9 @@
       <c r="AS111" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT111" s="12"/>
-      <c r="AU111" s="12"/>
-      <c r="AV111" s="12"/>
+      <c r="AT111" s="10"/>
+      <c r="AU111" s="10"/>
+      <c r="AV111" s="10"/>
       <c r="AW111" s="6" t="s">
         <v>0</v>
       </c>
@@ -20270,9 +20303,9 @@
       <c r="BD111" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BE111" s="12"/>
-      <c r="BF111" s="12"/>
-      <c r="BG111" s="12"/>
+      <c r="BE111" s="10"/>
+      <c r="BF111" s="10"/>
+      <c r="BG111" s="10"/>
     </row>
     <row r="112" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
@@ -20374,7 +20407,7 @@
       <c r="AG112" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AH112" s="28"/>
+      <c r="AH112" s="25"/>
       <c r="AI112" s="6" t="s">
         <v>0</v>
       </c>
@@ -20447,7 +20480,7 @@
       <c r="BF112" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG112" s="12"/>
+      <c r="BG112" s="10"/>
     </row>
     <row r="113" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -20656,11 +20689,11 @@
       <c r="I114" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J114" s="20"/>
+      <c r="J114" s="17"/>
       <c r="K114" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L114" s="20"/>
+      <c r="L114" s="17"/>
       <c r="M114" s="3" t="s">
         <v>0</v>
       </c>
@@ -20751,9 +20784,9 @@
       <c r="AP114" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AQ114" s="12"/>
-      <c r="AR114" s="12"/>
-      <c r="AS114" s="12"/>
+      <c r="AQ114" s="10"/>
+      <c r="AR114" s="10"/>
+      <c r="AS114" s="10"/>
       <c r="AT114" s="6" t="s">
         <v>0</v>
       </c>
@@ -21115,8 +21148,8 @@
       <c r="AT116" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AU116" s="12"/>
-      <c r="AV116" s="12"/>
+      <c r="AU116" s="10"/>
+      <c r="AV116" s="10"/>
       <c r="AW116" s="6" t="s">
         <v>0</v>
       </c>
@@ -21257,13 +21290,13 @@
       <c r="AI117" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ117" s="12"/>
-      <c r="AK117" s="12"/>
-      <c r="AL117" s="12"/>
-      <c r="AM117" s="12"/>
-      <c r="AN117" s="12"/>
-      <c r="AO117" s="12"/>
-      <c r="AP117" s="12"/>
+      <c r="AJ117" s="10"/>
+      <c r="AK117" s="10"/>
+      <c r="AL117" s="10"/>
+      <c r="AM117" s="10"/>
+      <c r="AN117" s="10"/>
+      <c r="AO117" s="10"/>
+      <c r="AP117" s="10"/>
       <c r="AQ117" s="8" t="s">
         <v>2</v>
       </c>
@@ -21362,7 +21395,7 @@
       <c r="O118" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P118" s="20"/>
+      <c r="P118" s="17"/>
       <c r="Q118" s="5" t="s">
         <v>2</v>
       </c>
@@ -21450,7 +21483,7 @@
       <c r="AS118" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT118" s="12"/>
+      <c r="AT118" s="10"/>
       <c r="AU118" s="6" t="s">
         <v>0</v>
       </c>
@@ -22155,7 +22188,7 @@
       <c r="AP122" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AQ122" s="12"/>
+      <c r="AQ122" s="10"/>
       <c r="AR122" s="6" t="s">
         <v>0</v>
       </c>
@@ -22344,21 +22377,21 @@
       <c r="AT123" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AU123" s="12"/>
-      <c r="AV123" s="12"/>
-      <c r="AW123" s="12"/>
-      <c r="AX123" s="12"/>
-      <c r="AY123" s="12"/>
-      <c r="AZ123" s="12"/>
-      <c r="BA123" s="12"/>
-      <c r="BB123" s="12"/>
-      <c r="BC123" s="12"/>
+      <c r="AU123" s="10"/>
+      <c r="AV123" s="10"/>
+      <c r="AW123" s="10"/>
+      <c r="AX123" s="10"/>
+      <c r="AY123" s="10"/>
+      <c r="AZ123" s="10"/>
+      <c r="BA123" s="10"/>
+      <c r="BB123" s="10"/>
+      <c r="BC123" s="10"/>
       <c r="BD123" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BE123" s="12"/>
-      <c r="BF123" s="12"/>
-      <c r="BG123" s="12"/>
+      <c r="BE123" s="10"/>
+      <c r="BF123" s="10"/>
+      <c r="BG123" s="10"/>
     </row>
     <row r="124" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
@@ -22415,7 +22448,7 @@
       <c r="R124" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="S124" s="20"/>
+      <c r="S124" s="17"/>
       <c r="T124" s="3" t="s">
         <v>0</v>
       </c>
@@ -22461,11 +22494,11 @@
       <c r="AH124" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AI124" s="28"/>
+      <c r="AI124" s="25"/>
       <c r="AJ124" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AK124" s="12"/>
+      <c r="AK124" s="10"/>
       <c r="AL124" s="7" t="s">
         <v>1</v>
       </c>
@@ -22743,7 +22776,7 @@
       <c r="J126" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K126" s="20"/>
+      <c r="K126" s="17"/>
       <c r="L126" s="3" t="s">
         <v>0</v>
       </c>
@@ -23075,24 +23108,24 @@
       <c r="B128" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C128" s="20"/>
-      <c r="D128" s="20"/>
-      <c r="E128" s="20"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="20"/>
-      <c r="H128" s="20"/>
-      <c r="I128" s="20"/>
-      <c r="J128" s="20"/>
-      <c r="K128" s="20"/>
-      <c r="L128" s="20"/>
-      <c r="M128" s="20"/>
-      <c r="N128" s="20"/>
-      <c r="O128" s="20"/>
-      <c r="P128" s="20"/>
-      <c r="Q128" s="20"/>
-      <c r="R128" s="20"/>
-      <c r="S128" s="20"/>
-      <c r="T128" s="20"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="17"/>
+      <c r="L128" s="17"/>
+      <c r="M128" s="17"/>
+      <c r="N128" s="17"/>
+      <c r="O128" s="17"/>
+      <c r="P128" s="17"/>
+      <c r="Q128" s="17"/>
+      <c r="R128" s="17"/>
+      <c r="S128" s="17"/>
+      <c r="T128" s="17"/>
       <c r="U128" s="6" t="s">
         <v>0</v>
       </c>
@@ -23183,7 +23216,7 @@
       <c r="AX128" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AY128" s="12"/>
+      <c r="AY128" s="10"/>
       <c r="AZ128" s="6" t="s">
         <v>0</v>
       </c>
@@ -23595,7 +23628,7 @@
       <c r="I131" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J131" s="20"/>
+      <c r="J131" s="17"/>
       <c r="K131" s="3" t="s">
         <v>0</v>
       </c>
@@ -23641,7 +23674,7 @@
       <c r="Y131" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Z131" s="28"/>
+      <c r="Z131" s="25"/>
       <c r="AA131" s="6" t="s">
         <v>0</v>
       </c>
@@ -23660,11 +23693,11 @@
       <c r="AF131" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AG131" s="28"/>
+      <c r="AG131" s="25"/>
       <c r="AH131" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AI131" s="28"/>
+      <c r="AI131" s="25"/>
       <c r="AJ131" s="7" t="s">
         <v>1</v>
       </c>
@@ -23728,9 +23761,9 @@
       <c r="BD131" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BE131" s="12"/>
-      <c r="BF131" s="12"/>
-      <c r="BG131" s="12"/>
+      <c r="BE131" s="10"/>
+      <c r="BF131" s="10"/>
+      <c r="BG131" s="10"/>
     </row>
     <row r="132" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
@@ -23739,13 +23772,13 @@
       <c r="B132" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="20"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="20"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
       <c r="J132" s="3" t="s">
         <v>0</v>
       </c>
@@ -23764,13 +23797,13 @@
       <c r="O132" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P132" s="20"/>
+      <c r="P132" s="17"/>
       <c r="Q132" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="R132" s="20"/>
-      <c r="S132" s="20"/>
-      <c r="T132" s="20"/>
+      <c r="R132" s="17"/>
+      <c r="S132" s="17"/>
+      <c r="T132" s="17"/>
       <c r="U132" s="6" t="s">
         <v>0</v>
       </c>
@@ -23995,16 +24028,16 @@
       <c r="AI133" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ133" s="12"/>
-      <c r="AK133" s="12"/>
-      <c r="AL133" s="12"/>
-      <c r="AM133" s="12"/>
-      <c r="AN133" s="12"/>
-      <c r="AO133" s="12"/>
-      <c r="AP133" s="12"/>
-      <c r="AQ133" s="12"/>
-      <c r="AR133" s="12"/>
-      <c r="AS133" s="12"/>
+      <c r="AJ133" s="10"/>
+      <c r="AK133" s="10"/>
+      <c r="AL133" s="10"/>
+      <c r="AM133" s="10"/>
+      <c r="AN133" s="10"/>
+      <c r="AO133" s="10"/>
+      <c r="AP133" s="10"/>
+      <c r="AQ133" s="10"/>
+      <c r="AR133" s="10"/>
+      <c r="AS133" s="10"/>
       <c r="AT133" s="6" t="s">
         <v>0</v>
       </c>
@@ -24061,21 +24094,21 @@
       <c r="D134" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E134" s="20"/>
+      <c r="E134" s="17"/>
       <c r="F134" s="3" t="s">
         <v>0</v>
       </c>
       <c r="G134" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H134" s="20"/>
-      <c r="I134" s="20"/>
-      <c r="J134" s="20"/>
-      <c r="K134" s="20"/>
-      <c r="L134" s="20"/>
-      <c r="M134" s="20"/>
-      <c r="N134" s="20"/>
-      <c r="O134" s="20"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
       <c r="P134" s="4" t="s">
         <v>1</v>
       </c>
@@ -24133,7 +24166,7 @@
       <c r="AH134" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AI134" s="28"/>
+      <c r="AI134" s="25"/>
       <c r="AJ134" s="7" t="s">
         <v>1</v>
       </c>
@@ -24504,9 +24537,9 @@
       <c r="AM136" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AN136" s="12"/>
-      <c r="AO136" s="12"/>
-      <c r="AP136" s="12"/>
+      <c r="AN136" s="10"/>
+      <c r="AO136" s="10"/>
+      <c r="AP136" s="10"/>
       <c r="AQ136" s="7" t="s">
         <v>1</v>
       </c>
@@ -24537,8 +24570,8 @@
       <c r="AZ136" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BA136" s="12"/>
-      <c r="BB136" s="12"/>
+      <c r="BA136" s="10"/>
+      <c r="BB136" s="10"/>
       <c r="BC136" s="7" t="s">
         <v>1</v>
       </c>
@@ -25034,7 +25067,7 @@
       <c r="AN139" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AO139" s="12"/>
+      <c r="AO139" s="10"/>
       <c r="AP139" s="6" t="s">
         <v>0</v>
       </c>
@@ -25121,7 +25154,7 @@
       <c r="J140" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K140" s="20"/>
+      <c r="K140" s="17"/>
       <c r="L140" s="3" t="s">
         <v>0</v>
       </c>
@@ -25131,7 +25164,7 @@
       <c r="N140" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O140" s="20"/>
+      <c r="O140" s="17"/>
       <c r="P140" s="3" t="s">
         <v>0</v>
       </c>
@@ -25153,8 +25186,8 @@
       <c r="V140" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W140" s="12"/>
-      <c r="X140" s="12"/>
+      <c r="W140" s="10"/>
+      <c r="X140" s="10"/>
       <c r="Y140" s="6" t="s">
         <v>0</v>
       </c>
@@ -25179,14 +25212,14 @@
       <c r="AF140" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AG140" s="28"/>
+      <c r="AG140" s="25"/>
       <c r="AH140" s="6" t="s">
         <v>0</v>
       </c>
       <c r="AI140" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ140" s="12"/>
+      <c r="AJ140" s="10"/>
       <c r="AK140" s="7" t="s">
         <v>1</v>
       </c>
@@ -25205,9 +25238,9 @@
       <c r="AP140" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AQ140" s="12"/>
-      <c r="AR140" s="12"/>
-      <c r="AS140" s="12"/>
+      <c r="AQ140" s="10"/>
+      <c r="AR140" s="10"/>
+      <c r="AS140" s="10"/>
       <c r="AT140" s="7" t="s">
         <v>1</v>
       </c>
@@ -25297,7 +25330,7 @@
       <c r="O141" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P141" s="20"/>
+      <c r="P141" s="17"/>
       <c r="Q141" s="4" t="s">
         <v>1</v>
       </c>
@@ -25400,7 +25433,7 @@
       <c r="AX141" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AY141" s="12"/>
+      <c r="AY141" s="10"/>
       <c r="AZ141" s="6" t="s">
         <v>0</v>
       </c>
@@ -25612,19 +25645,19 @@
       <c r="B143" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-      <c r="F143" s="20"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
-      <c r="J143" s="20"/>
-      <c r="K143" s="20"/>
-      <c r="L143" s="20"/>
-      <c r="M143" s="20"/>
-      <c r="N143" s="20"/>
-      <c r="O143" s="20"/>
+      <c r="C143" s="17"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+      <c r="N143" s="17"/>
+      <c r="O143" s="17"/>
       <c r="P143" s="3" t="s">
         <v>0</v>
       </c>
@@ -25640,8 +25673,8 @@
       <c r="T143" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U143" s="12"/>
-      <c r="V143" s="12"/>
+      <c r="U143" s="10"/>
+      <c r="V143" s="10"/>
       <c r="W143" s="7" t="s">
         <v>1</v>
       </c>
@@ -25738,8 +25771,8 @@
       <c r="BB143" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC143" s="12"/>
-      <c r="BD143" s="12"/>
+      <c r="BC143" s="10"/>
+      <c r="BD143" s="10"/>
       <c r="BE143" s="6" t="s">
         <v>0</v>
       </c>
@@ -26098,8 +26131,8 @@
       <c r="BD145" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BE145" s="12"/>
-      <c r="BF145" s="12"/>
+      <c r="BE145" s="10"/>
+      <c r="BF145" s="10"/>
       <c r="BG145" s="7" t="s">
         <v>1</v>
       </c>
@@ -26279,7 +26312,7 @@
       <c r="BF146" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG146" s="12"/>
+      <c r="BG146" s="10"/>
     </row>
     <row r="147" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
@@ -26435,7 +26468,7 @@
       <c r="AY147" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AZ147" s="12"/>
+      <c r="AZ147" s="10"/>
       <c r="BA147" s="6" t="s">
         <v>0</v>
       </c>
@@ -26468,7 +26501,7 @@
       <c r="C148" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D148" s="20"/>
+      <c r="D148" s="17"/>
       <c r="E148" s="3" t="s">
         <v>0</v>
       </c>
@@ -26478,7 +26511,7 @@
       <c r="G148" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H148" s="20"/>
+      <c r="H148" s="17"/>
       <c r="I148" s="3" t="s">
         <v>0</v>
       </c>
@@ -26497,7 +26530,7 @@
       <c r="N148" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O148" s="20"/>
+      <c r="O148" s="17"/>
       <c r="P148" s="3" t="s">
         <v>0</v>
       </c>
@@ -26507,7 +26540,7 @@
       <c r="R148" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="S148" s="20"/>
+      <c r="S148" s="17"/>
       <c r="T148" s="3" t="s">
         <v>0</v>
       </c>
@@ -26547,9 +26580,9 @@
       <c r="AF148" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AG148" s="28"/>
-      <c r="AH148" s="28"/>
-      <c r="AI148" s="28"/>
+      <c r="AG148" s="25"/>
+      <c r="AH148" s="25"/>
+      <c r="AI148" s="25"/>
       <c r="AJ148" s="7" t="s">
         <v>1</v>
       </c>
@@ -26589,7 +26622,7 @@
       <c r="AV148" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AW148" s="12"/>
+      <c r="AW148" s="10"/>
       <c r="AX148" s="7" t="s">
         <v>1</v>
       </c>
@@ -26724,39 +26757,39 @@
       <c r="AH149" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AI149" s="28"/>
+      <c r="AI149" s="25"/>
       <c r="AJ149" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AK149" s="12"/>
+      <c r="AK149" s="10"/>
       <c r="AL149" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AM149" s="12"/>
+      <c r="AM149" s="10"/>
       <c r="AN149" s="6" t="s">
         <v>0</v>
       </c>
       <c r="AO149" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AP149" s="12"/>
-      <c r="AQ149" s="12"/>
-      <c r="AR149" s="12"/>
-      <c r="AS149" s="12"/>
-      <c r="AT149" s="12"/>
-      <c r="AU149" s="12"/>
-      <c r="AV149" s="12"/>
-      <c r="AW149" s="12"/>
-      <c r="AX149" s="12"/>
-      <c r="AY149" s="12"/>
-      <c r="AZ149" s="12"/>
-      <c r="BA149" s="12"/>
-      <c r="BB149" s="12"/>
-      <c r="BC149" s="12"/>
-      <c r="BD149" s="12"/>
-      <c r="BE149" s="12"/>
-      <c r="BF149" s="12"/>
-      <c r="BG149" s="12"/>
+      <c r="AP149" s="10"/>
+      <c r="AQ149" s="10"/>
+      <c r="AR149" s="10"/>
+      <c r="AS149" s="10"/>
+      <c r="AT149" s="10"/>
+      <c r="AU149" s="10"/>
+      <c r="AV149" s="10"/>
+      <c r="AW149" s="10"/>
+      <c r="AX149" s="10"/>
+      <c r="AY149" s="10"/>
+      <c r="AZ149" s="10"/>
+      <c r="BA149" s="10"/>
+      <c r="BB149" s="10"/>
+      <c r="BC149" s="10"/>
+      <c r="BD149" s="10"/>
+      <c r="BE149" s="10"/>
+      <c r="BF149" s="10"/>
+      <c r="BG149" s="10"/>
     </row>
     <row r="150" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
@@ -26983,7 +27016,7 @@
       <c r="O151" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P151" s="20"/>
+      <c r="P151" s="17"/>
       <c r="Q151" s="4" t="s">
         <v>1</v>
       </c>
@@ -27020,7 +27053,7 @@
       <c r="AB151" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AC151" s="28"/>
+      <c r="AC151" s="25"/>
       <c r="AD151" s="6" t="s">
         <v>0</v>
       </c>
@@ -28071,7 +28104,7 @@
       <c r="U157" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="V157" s="12"/>
+      <c r="V157" s="10"/>
       <c r="W157" s="7" t="s">
         <v>1</v>
       </c>
@@ -28278,7 +28311,7 @@
       <c r="AE158" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AF158" s="28"/>
+      <c r="AF158" s="25"/>
       <c r="AG158" s="6" t="s">
         <v>0</v>
       </c>
@@ -28312,7 +28345,7 @@
       <c r="AQ158" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AR158" s="12"/>
+      <c r="AR158" s="10"/>
       <c r="AS158" s="6" t="s">
         <v>0</v>
       </c>
@@ -28575,8 +28608,8 @@
       <c r="L160" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M160" s="20"/>
-      <c r="N160" s="20"/>
+      <c r="M160" s="17"/>
+      <c r="N160" s="17"/>
       <c r="O160" s="3" t="s">
         <v>0</v>
       </c>
@@ -28601,8 +28634,8 @@
       <c r="V160" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W160" s="12"/>
-      <c r="X160" s="12"/>
+      <c r="W160" s="10"/>
+      <c r="X160" s="10"/>
       <c r="Y160" s="7" t="s">
         <v>1</v>
       </c>
@@ -28633,7 +28666,7 @@
       <c r="AH160" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AI160" s="28"/>
+      <c r="AI160" s="25"/>
       <c r="AJ160" s="6" t="s">
         <v>0</v>
       </c>
@@ -28777,7 +28810,7 @@
       <c r="W161" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="X161" s="12"/>
+      <c r="X161" s="10"/>
       <c r="Y161" s="7" t="s">
         <v>1</v>
       </c>
@@ -28787,7 +28820,7 @@
       <c r="AA161" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AB161" s="28"/>
+      <c r="AB161" s="25"/>
       <c r="AC161" s="7" t="s">
         <v>1</v>
       </c>
@@ -29068,24 +29101,24 @@
       <c r="B163" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C163" s="20"/>
-      <c r="D163" s="20"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-      <c r="I163" s="20"/>
-      <c r="J163" s="20"/>
-      <c r="K163" s="20"/>
-      <c r="L163" s="20"/>
-      <c r="M163" s="20"/>
-      <c r="N163" s="20"/>
-      <c r="O163" s="20"/>
-      <c r="P163" s="20"/>
-      <c r="Q163" s="20"/>
-      <c r="R163" s="20"/>
-      <c r="S163" s="20"/>
-      <c r="T163" s="20"/>
+      <c r="C163" s="17"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="17"/>
+      <c r="L163" s="17"/>
+      <c r="M163" s="17"/>
+      <c r="N163" s="17"/>
+      <c r="O163" s="17"/>
+      <c r="P163" s="17"/>
+      <c r="Q163" s="17"/>
+      <c r="R163" s="17"/>
+      <c r="S163" s="17"/>
+      <c r="T163" s="17"/>
       <c r="U163" s="6" t="s">
         <v>0</v>
       </c>
@@ -29226,7 +29259,7 @@
       <c r="G164" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H164" s="20"/>
+      <c r="H164" s="17"/>
       <c r="I164" s="4" t="s">
         <v>1</v>
       </c>
@@ -29365,11 +29398,11 @@
       <c r="BB164" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC164" s="12"/>
-      <c r="BD164" s="12"/>
-      <c r="BE164" s="12"/>
-      <c r="BF164" s="12"/>
-      <c r="BG164" s="12"/>
+      <c r="BC164" s="10"/>
+      <c r="BD164" s="10"/>
+      <c r="BE164" s="10"/>
+      <c r="BF164" s="10"/>
+      <c r="BG164" s="10"/>
     </row>
     <row r="165" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
@@ -29402,7 +29435,7 @@
       <c r="J165" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K165" s="20"/>
+      <c r="K165" s="17"/>
       <c r="L165" s="3" t="s">
         <v>0</v>
       </c>
@@ -29445,7 +29478,7 @@
       <c r="Y165" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="Z165" s="28"/>
+      <c r="Z165" s="25"/>
       <c r="AA165" s="8" t="s">
         <v>2</v>
       </c>
@@ -29479,7 +29512,7 @@
       <c r="AK165" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AL165" s="12"/>
+      <c r="AL165" s="10"/>
       <c r="AM165" s="6" t="s">
         <v>0</v>
       </c>
@@ -29575,7 +29608,7 @@
       <c r="J166" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K166" s="20"/>
+      <c r="K166" s="17"/>
       <c r="L166" s="3" t="s">
         <v>0</v>
       </c>
@@ -29636,9 +29669,9 @@
       <c r="AE166" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AF166" s="28"/>
-      <c r="AG166" s="28"/>
-      <c r="AH166" s="28"/>
+      <c r="AF166" s="25"/>
+      <c r="AG166" s="25"/>
+      <c r="AH166" s="25"/>
       <c r="AI166" s="6" t="s">
         <v>0</v>
       </c>
@@ -29660,7 +29693,7 @@
       <c r="AO166" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AP166" s="12"/>
+      <c r="AP166" s="10"/>
       <c r="AQ166" s="6" t="s">
         <v>0</v>
       </c>
@@ -29697,11 +29730,11 @@
       <c r="BB166" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC166" s="12"/>
-      <c r="BD166" s="12"/>
-      <c r="BE166" s="12"/>
-      <c r="BF166" s="12"/>
-      <c r="BG166" s="12"/>
+      <c r="BC166" s="10"/>
+      <c r="BD166" s="10"/>
+      <c r="BE166" s="10"/>
+      <c r="BF166" s="10"/>
+      <c r="BG166" s="10"/>
     </row>
     <row r="167" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
@@ -29710,11 +29743,11 @@
       <c r="B167" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C167" s="20"/>
-      <c r="D167" s="20"/>
-      <c r="E167" s="20"/>
-      <c r="F167" s="20"/>
-      <c r="G167" s="20"/>
+      <c r="C167" s="17"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
       <c r="H167" s="3" t="s">
         <v>0</v>
       </c>
@@ -29799,16 +29832,16 @@
       <c r="AI167" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ167" s="12"/>
-      <c r="AK167" s="12"/>
-      <c r="AL167" s="12"/>
-      <c r="AM167" s="12"/>
-      <c r="AN167" s="12"/>
-      <c r="AO167" s="12"/>
-      <c r="AP167" s="12"/>
-      <c r="AQ167" s="12"/>
-      <c r="AR167" s="12"/>
-      <c r="AS167" s="12"/>
+      <c r="AJ167" s="10"/>
+      <c r="AK167" s="10"/>
+      <c r="AL167" s="10"/>
+      <c r="AM167" s="10"/>
+      <c r="AN167" s="10"/>
+      <c r="AO167" s="10"/>
+      <c r="AP167" s="10"/>
+      <c r="AQ167" s="10"/>
+      <c r="AR167" s="10"/>
+      <c r="AS167" s="10"/>
       <c r="AT167" s="6" t="s">
         <v>0</v>
       </c>
@@ -30760,7 +30793,7 @@
       <c r="D173" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E173" s="20"/>
+      <c r="E173" s="17"/>
       <c r="F173" s="3" t="s">
         <v>0</v>
       </c>
@@ -30809,7 +30842,7 @@
       <c r="U173" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="V173" s="12"/>
+      <c r="V173" s="10"/>
       <c r="W173" s="7" t="s">
         <v>1</v>
       </c>
@@ -30834,7 +30867,7 @@
       <c r="AD173" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AE173" s="28"/>
+      <c r="AE173" s="25"/>
       <c r="AF173" s="6" t="s">
         <v>0</v>
       </c>
@@ -31724,18 +31757,18 @@
       <c r="AC178" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AD178" s="28"/>
+      <c r="AD178" s="25"/>
       <c r="AE178" s="6" t="s">
         <v>0</v>
       </c>
       <c r="AF178" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AG178" s="28"/>
+      <c r="AG178" s="25"/>
       <c r="AH178" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AI178" s="28"/>
+      <c r="AI178" s="25"/>
       <c r="AJ178" s="7" t="s">
         <v>1</v>
       </c>
@@ -31766,7 +31799,7 @@
       <c r="AS178" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AT178" s="12"/>
+      <c r="AT178" s="10"/>
       <c r="AU178" s="6" t="s">
         <v>0</v>
       </c>
@@ -31785,8 +31818,8 @@
       <c r="AZ178" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BA178" s="12"/>
-      <c r="BB178" s="12"/>
+      <c r="BA178" s="10"/>
+      <c r="BB178" s="10"/>
       <c r="BC178" s="6" t="s">
         <v>0</v>
       </c>
@@ -31975,7 +32008,7 @@
       <c r="BE179" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BF179" s="12"/>
+      <c r="BF179" s="10"/>
       <c r="BG179" s="6" t="s">
         <v>0</v>
       </c>
@@ -32080,7 +32113,7 @@
       <c r="AG180" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AH180" s="28"/>
+      <c r="AH180" s="25"/>
       <c r="AI180" s="6" t="s">
         <v>0</v>
       </c>
@@ -32185,7 +32218,7 @@
       <c r="I181" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J181" s="20"/>
+      <c r="J181" s="17"/>
       <c r="K181" s="3" t="s">
         <v>0</v>
       </c>
@@ -32288,7 +32321,7 @@
       <c r="AR181" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AS181" s="12"/>
+      <c r="AS181" s="10"/>
       <c r="AT181" s="7" t="s">
         <v>1</v>
       </c>
@@ -32450,12 +32483,12 @@
       <c r="AM182" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AN182" s="12"/>
-      <c r="AO182" s="12"/>
-      <c r="AP182" s="12"/>
-      <c r="AQ182" s="12"/>
-      <c r="AR182" s="12"/>
-      <c r="AS182" s="12"/>
+      <c r="AN182" s="10"/>
+      <c r="AO182" s="10"/>
+      <c r="AP182" s="10"/>
+      <c r="AQ182" s="10"/>
+      <c r="AR182" s="10"/>
+      <c r="AS182" s="10"/>
       <c r="AT182" s="7" t="s">
         <v>1</v>
       </c>
@@ -32483,11 +32516,11 @@
       <c r="BB182" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC182" s="12"/>
-      <c r="BD182" s="12"/>
-      <c r="BE182" s="12"/>
-      <c r="BF182" s="12"/>
-      <c r="BG182" s="12"/>
+      <c r="BC182" s="10"/>
+      <c r="BD182" s="10"/>
+      <c r="BE182" s="10"/>
+      <c r="BF182" s="10"/>
+      <c r="BG182" s="10"/>
     </row>
     <row r="183" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
@@ -32517,7 +32550,7 @@
       <c r="I183" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J183" s="20"/>
+      <c r="J183" s="17"/>
       <c r="K183" s="3" t="s">
         <v>0</v>
       </c>
@@ -33187,13 +33220,13 @@
       <c r="BB186" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC186" s="12"/>
+      <c r="BC186" s="10"/>
       <c r="BD186" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BE186" s="12"/>
-      <c r="BF186" s="12"/>
-      <c r="BG186" s="12"/>
+      <c r="BE186" s="10"/>
+      <c r="BF186" s="10"/>
+      <c r="BG186" s="10"/>
     </row>
     <row r="187" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
@@ -33223,14 +33256,14 @@
       <c r="I187" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="J187" s="20"/>
-      <c r="K187" s="20"/>
-      <c r="L187" s="20"/>
-      <c r="M187" s="20"/>
+      <c r="J187" s="17"/>
+      <c r="K187" s="17"/>
+      <c r="L187" s="17"/>
+      <c r="M187" s="17"/>
       <c r="N187" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O187" s="20"/>
+      <c r="O187" s="17"/>
       <c r="P187" s="3" t="s">
         <v>0</v>
       </c>
@@ -33270,12 +33303,12 @@
       <c r="AB187" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AC187" s="28"/>
+      <c r="AC187" s="25"/>
       <c r="AD187" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AE187" s="28"/>
-      <c r="AF187" s="28"/>
+      <c r="AE187" s="25"/>
+      <c r="AF187" s="25"/>
       <c r="AG187" s="7" t="s">
         <v>1</v>
       </c>
@@ -33315,7 +33348,7 @@
       <c r="AS187" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT187" s="12"/>
+      <c r="AT187" s="10"/>
       <c r="AU187" s="7" t="s">
         <v>1</v>
       </c>
@@ -33384,7 +33417,7 @@
       <c r="I188" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J188" s="20"/>
+      <c r="J188" s="17"/>
       <c r="K188" s="3" t="s">
         <v>0</v>
       </c>
@@ -33526,7 +33559,7 @@
       <c r="BE188" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BF188" s="12"/>
+      <c r="BF188" s="10"/>
       <c r="BG188" s="6" t="s">
         <v>0</v>
       </c>
@@ -33538,8 +33571,8 @@
       <c r="B189" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C189" s="20"/>
-      <c r="D189" s="20"/>
+      <c r="C189" s="17"/>
+      <c r="D189" s="17"/>
       <c r="E189" s="3" t="s">
         <v>0</v>
       </c>
@@ -33555,8 +33588,8 @@
       <c r="I189" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J189" s="20"/>
-      <c r="K189" s="20"/>
+      <c r="J189" s="17"/>
+      <c r="K189" s="17"/>
       <c r="L189" s="3" t="s">
         <v>0</v>
       </c>
@@ -33656,7 +33689,7 @@
       <c r="AR189" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AS189" s="12"/>
+      <c r="AS189" s="10"/>
       <c r="AT189" s="7" t="s">
         <v>1</v>
       </c>
@@ -33684,11 +33717,11 @@
       <c r="BB189" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC189" s="12"/>
-      <c r="BD189" s="12"/>
-      <c r="BE189" s="12"/>
-      <c r="BF189" s="12"/>
-      <c r="BG189" s="12"/>
+      <c r="BC189" s="10"/>
+      <c r="BD189" s="10"/>
+      <c r="BE189" s="10"/>
+      <c r="BF189" s="10"/>
+      <c r="BG189" s="10"/>
     </row>
     <row r="190" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
@@ -33757,7 +33790,7 @@
       <c r="V190" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W190" s="12"/>
+      <c r="W190" s="10"/>
       <c r="X190" s="6" t="s">
         <v>0</v>
       </c>
@@ -34080,7 +34113,7 @@
       <c r="K192" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L192" s="20"/>
+      <c r="L192" s="17"/>
       <c r="M192" s="3" t="s">
         <v>0</v>
       </c>
@@ -34099,7 +34132,7 @@
       <c r="R192" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="S192" s="20"/>
+      <c r="S192" s="17"/>
       <c r="T192" s="3" t="s">
         <v>0</v>
       </c>
@@ -34121,29 +34154,29 @@
       <c r="Z192" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AA192" s="28"/>
-      <c r="AB192" s="28"/>
-      <c r="AC192" s="28"/>
-      <c r="AD192" s="28"/>
-      <c r="AE192" s="28"/>
-      <c r="AF192" s="28"/>
-      <c r="AG192" s="28"/>
-      <c r="AH192" s="28"/>
-      <c r="AI192" s="28"/>
+      <c r="AA192" s="25"/>
+      <c r="AB192" s="25"/>
+      <c r="AC192" s="25"/>
+      <c r="AD192" s="25"/>
+      <c r="AE192" s="25"/>
+      <c r="AF192" s="25"/>
+      <c r="AG192" s="25"/>
+      <c r="AH192" s="25"/>
+      <c r="AI192" s="25"/>
       <c r="AJ192" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AK192" s="12"/>
+      <c r="AK192" s="10"/>
       <c r="AL192" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AM192" s="12"/>
-      <c r="AN192" s="12"/>
-      <c r="AO192" s="12"/>
-      <c r="AP192" s="12"/>
-      <c r="AQ192" s="12"/>
-      <c r="AR192" s="12"/>
-      <c r="AS192" s="12"/>
+      <c r="AM192" s="10"/>
+      <c r="AN192" s="10"/>
+      <c r="AO192" s="10"/>
+      <c r="AP192" s="10"/>
+      <c r="AQ192" s="10"/>
+      <c r="AR192" s="10"/>
+      <c r="AS192" s="10"/>
       <c r="AT192" s="7" t="s">
         <v>1</v>
       </c>
@@ -34165,8 +34198,8 @@
       <c r="AZ192" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BA192" s="12"/>
-      <c r="BB192" s="12"/>
+      <c r="BA192" s="10"/>
+      <c r="BB192" s="10"/>
       <c r="BC192" s="6" t="s">
         <v>0</v>
       </c>
@@ -34328,12 +34361,12 @@
       <c r="AV193" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AW193" s="12"/>
-      <c r="AX193" s="12"/>
-      <c r="AY193" s="12"/>
-      <c r="AZ193" s="12"/>
-      <c r="BA193" s="12"/>
-      <c r="BB193" s="12"/>
+      <c r="AW193" s="10"/>
+      <c r="AX193" s="10"/>
+      <c r="AY193" s="10"/>
+      <c r="AZ193" s="10"/>
+      <c r="BA193" s="10"/>
+      <c r="BB193" s="10"/>
       <c r="BC193" s="6" t="s">
         <v>0</v>
       </c>
@@ -34346,7 +34379,7 @@
       <c r="BF193" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG193" s="12"/>
+      <c r="BG193" s="10"/>
     </row>
     <row r="194" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
@@ -34421,7 +34454,7 @@
       <c r="X194" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Y194" s="12"/>
+      <c r="Y194" s="10"/>
       <c r="Z194" s="6" t="s">
         <v>0</v>
       </c>
@@ -34437,7 +34470,7 @@
       <c r="AD194" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AE194" s="28"/>
+      <c r="AE194" s="25"/>
       <c r="AF194" s="6" t="s">
         <v>0</v>
       </c>
@@ -34674,11 +34707,11 @@
       <c r="AX195" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AY195" s="12"/>
+      <c r="AY195" s="10"/>
       <c r="AZ195" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BA195" s="12"/>
+      <c r="BA195" s="10"/>
       <c r="BB195" s="8" t="s">
         <v>2</v>
       </c>
@@ -34873,7 +34906,7 @@
       <c r="BF196" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG196" s="12"/>
+      <c r="BG196" s="10"/>
     </row>
     <row r="197" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
@@ -35300,7 +35333,7 @@
       <c r="V199" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W199" s="12"/>
+      <c r="W199" s="10"/>
       <c r="X199" s="6" t="s">
         <v>0</v>
       </c>
@@ -35319,7 +35352,7 @@
       <c r="AC199" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AD199" s="28"/>
+      <c r="AD199" s="25"/>
       <c r="AE199" s="6" t="s">
         <v>0</v>
       </c>
@@ -35332,7 +35365,7 @@
       <c r="AH199" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AI199" s="28"/>
+      <c r="AI199" s="25"/>
       <c r="AJ199" s="6" t="s">
         <v>0</v>
       </c>
@@ -35345,9 +35378,9 @@
       <c r="AM199" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AN199" s="12"/>
-      <c r="AO199" s="12"/>
-      <c r="AP199" s="12"/>
+      <c r="AN199" s="10"/>
+      <c r="AO199" s="10"/>
+      <c r="AP199" s="10"/>
       <c r="AQ199" s="6" t="s">
         <v>0</v>
       </c>
@@ -35375,15 +35408,15 @@
       <c r="AY199" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AZ199" s="12"/>
+      <c r="AZ199" s="10"/>
       <c r="BA199" s="6" t="s">
         <v>0</v>
       </c>
       <c r="BB199" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC199" s="12"/>
-      <c r="BD199" s="12"/>
+      <c r="BC199" s="10"/>
+      <c r="BD199" s="10"/>
       <c r="BE199" s="6" t="s">
         <v>0</v>
       </c>
@@ -35977,7 +36010,7 @@
       <c r="O203" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P203" s="20"/>
+      <c r="P203" s="17"/>
       <c r="Q203" s="4" t="s">
         <v>1</v>
       </c>
@@ -36008,15 +36041,15 @@
       <c r="Z203" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AA203" s="28"/>
-      <c r="AB203" s="28"/>
-      <c r="AC203" s="28"/>
-      <c r="AD203" s="28"/>
-      <c r="AE203" s="28"/>
-      <c r="AF203" s="28"/>
-      <c r="AG203" s="28"/>
-      <c r="AH203" s="28"/>
-      <c r="AI203" s="28"/>
+      <c r="AA203" s="25"/>
+      <c r="AB203" s="25"/>
+      <c r="AC203" s="25"/>
+      <c r="AD203" s="25"/>
+      <c r="AE203" s="25"/>
+      <c r="AF203" s="25"/>
+      <c r="AG203" s="25"/>
+      <c r="AH203" s="25"/>
+      <c r="AI203" s="25"/>
       <c r="AJ203" s="6" t="s">
         <v>0</v>
       </c>
@@ -36056,12 +36089,12 @@
       <c r="AV203" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AW203" s="12"/>
-      <c r="AX203" s="12"/>
-      <c r="AY203" s="12"/>
-      <c r="AZ203" s="12"/>
-      <c r="BA203" s="12"/>
-      <c r="BB203" s="12"/>
+      <c r="AW203" s="10"/>
+      <c r="AX203" s="10"/>
+      <c r="AY203" s="10"/>
+      <c r="AZ203" s="10"/>
+      <c r="BA203" s="10"/>
+      <c r="BB203" s="10"/>
       <c r="BC203" s="6" t="s">
         <v>0</v>
       </c>
@@ -36094,62 +36127,62 @@
       <c r="E204" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F204" s="20"/>
+      <c r="F204" s="17"/>
       <c r="G204" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H204" s="20"/>
-      <c r="I204" s="20"/>
-      <c r="J204" s="20"/>
-      <c r="K204" s="20"/>
-      <c r="L204" s="20"/>
-      <c r="M204" s="20"/>
-      <c r="N204" s="20"/>
-      <c r="O204" s="20"/>
-      <c r="P204" s="20"/>
-      <c r="Q204" s="20"/>
-      <c r="R204" s="20"/>
-      <c r="S204" s="20"/>
-      <c r="T204" s="20"/>
-      <c r="U204" s="12"/>
-      <c r="V204" s="12"/>
-      <c r="W204" s="12"/>
-      <c r="X204" s="12"/>
-      <c r="Y204" s="12"/>
-      <c r="Z204" s="28"/>
-      <c r="AA204" s="28"/>
-      <c r="AB204" s="28"/>
-      <c r="AC204" s="28"/>
-      <c r="AD204" s="28"/>
-      <c r="AE204" s="28"/>
-      <c r="AF204" s="28"/>
-      <c r="AG204" s="28"/>
-      <c r="AH204" s="28"/>
-      <c r="AI204" s="28"/>
-      <c r="AJ204" s="12"/>
-      <c r="AK204" s="12"/>
-      <c r="AL204" s="12"/>
-      <c r="AM204" s="12"/>
-      <c r="AN204" s="12"/>
-      <c r="AO204" s="12"/>
-      <c r="AP204" s="12"/>
-      <c r="AQ204" s="12"/>
-      <c r="AR204" s="12"/>
-      <c r="AS204" s="12"/>
-      <c r="AT204" s="12"/>
-      <c r="AU204" s="12"/>
-      <c r="AV204" s="12"/>
-      <c r="AW204" s="12"/>
-      <c r="AX204" s="12"/>
-      <c r="AY204" s="12"/>
-      <c r="AZ204" s="12"/>
-      <c r="BA204" s="12"/>
-      <c r="BB204" s="12"/>
-      <c r="BC204" s="12"/>
-      <c r="BD204" s="12"/>
-      <c r="BE204" s="12"/>
-      <c r="BF204" s="12"/>
-      <c r="BG204" s="12"/>
+      <c r="H204" s="17"/>
+      <c r="I204" s="17"/>
+      <c r="J204" s="17"/>
+      <c r="K204" s="17"/>
+      <c r="L204" s="17"/>
+      <c r="M204" s="17"/>
+      <c r="N204" s="17"/>
+      <c r="O204" s="17"/>
+      <c r="P204" s="17"/>
+      <c r="Q204" s="17"/>
+      <c r="R204" s="17"/>
+      <c r="S204" s="17"/>
+      <c r="T204" s="17"/>
+      <c r="U204" s="10"/>
+      <c r="V204" s="10"/>
+      <c r="W204" s="10"/>
+      <c r="X204" s="10"/>
+      <c r="Y204" s="10"/>
+      <c r="Z204" s="25"/>
+      <c r="AA204" s="25"/>
+      <c r="AB204" s="25"/>
+      <c r="AC204" s="25"/>
+      <c r="AD204" s="25"/>
+      <c r="AE204" s="25"/>
+      <c r="AF204" s="25"/>
+      <c r="AG204" s="25"/>
+      <c r="AH204" s="25"/>
+      <c r="AI204" s="25"/>
+      <c r="AJ204" s="10"/>
+      <c r="AK204" s="10"/>
+      <c r="AL204" s="10"/>
+      <c r="AM204" s="10"/>
+      <c r="AN204" s="10"/>
+      <c r="AO204" s="10"/>
+      <c r="AP204" s="10"/>
+      <c r="AQ204" s="10"/>
+      <c r="AR204" s="10"/>
+      <c r="AS204" s="10"/>
+      <c r="AT204" s="10"/>
+      <c r="AU204" s="10"/>
+      <c r="AV204" s="10"/>
+      <c r="AW204" s="10"/>
+      <c r="AX204" s="10"/>
+      <c r="AY204" s="10"/>
+      <c r="AZ204" s="10"/>
+      <c r="BA204" s="10"/>
+      <c r="BB204" s="10"/>
+      <c r="BC204" s="10"/>
+      <c r="BD204" s="10"/>
+      <c r="BE204" s="10"/>
+      <c r="BF204" s="10"/>
+      <c r="BG204" s="10"/>
     </row>
     <row r="205" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
@@ -36218,7 +36251,7 @@
       <c r="V205" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W205" s="12"/>
+      <c r="W205" s="10"/>
       <c r="X205" s="7" t="s">
         <v>1</v>
       </c>
@@ -36347,7 +36380,7 @@
       <c r="F206" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G206" s="20"/>
+      <c r="G206" s="17"/>
       <c r="H206" s="3" t="s">
         <v>0</v>
       </c>
@@ -36465,7 +36498,7 @@
       <c r="AT206" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AU206" s="12"/>
+      <c r="AU206" s="10"/>
       <c r="AV206" s="6" t="s">
         <v>0</v>
       </c>
@@ -36534,8 +36567,8 @@
       <c r="J207" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K207" s="20"/>
-      <c r="L207" s="20"/>
+      <c r="K207" s="17"/>
+      <c r="L207" s="17"/>
       <c r="M207" s="3" t="s">
         <v>0</v>
       </c>
@@ -36668,11 +36701,11 @@
       <c r="BD207" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BE207" s="12"/>
+      <c r="BE207" s="10"/>
       <c r="BF207" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG207" s="12"/>
+      <c r="BG207" s="10"/>
     </row>
     <row r="208" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
@@ -36834,7 +36867,7 @@
       <c r="BA208" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BB208" s="12"/>
+      <c r="BB208" s="10"/>
       <c r="BC208" s="6" t="s">
         <v>0</v>
       </c>
@@ -37557,7 +37590,7 @@
       <c r="BD212" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BE212" s="12"/>
+      <c r="BE212" s="10"/>
       <c r="BF212" s="6" t="s">
         <v>0</v>
       </c>
@@ -37632,7 +37665,7 @@
       <c r="V213" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W213" s="12"/>
+      <c r="W213" s="10"/>
       <c r="X213" s="6" t="s">
         <v>0</v>
       </c>
@@ -37666,7 +37699,7 @@
       <c r="AH213" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AI213" s="28"/>
+      <c r="AI213" s="25"/>
       <c r="AJ213" s="6" t="s">
         <v>0</v>
       </c>
@@ -37768,7 +37801,7 @@
       <c r="I214" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J214" s="20"/>
+      <c r="J214" s="17"/>
       <c r="K214" s="3" t="s">
         <v>0</v>
       </c>
@@ -38202,9 +38235,9 @@
       <c r="AI216" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ216" s="12"/>
-      <c r="AK216" s="12"/>
-      <c r="AL216" s="12"/>
+      <c r="AJ216" s="10"/>
+      <c r="AK216" s="10"/>
+      <c r="AL216" s="10"/>
       <c r="AM216" s="8" t="s">
         <v>2</v>
       </c>
@@ -38217,27 +38250,27 @@
       <c r="AP216" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AQ216" s="12"/>
+      <c r="AQ216" s="10"/>
       <c r="AR216" s="6" t="s">
         <v>0</v>
       </c>
       <c r="AS216" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AT216" s="12"/>
-      <c r="AU216" s="12"/>
-      <c r="AV216" s="12"/>
-      <c r="AW216" s="12"/>
-      <c r="AX216" s="12"/>
-      <c r="AY216" s="12"/>
-      <c r="AZ216" s="12"/>
-      <c r="BA216" s="12"/>
-      <c r="BB216" s="12"/>
-      <c r="BC216" s="12"/>
-      <c r="BD216" s="12"/>
-      <c r="BE216" s="12"/>
-      <c r="BF216" s="12"/>
-      <c r="BG216" s="12"/>
+      <c r="AT216" s="10"/>
+      <c r="AU216" s="10"/>
+      <c r="AV216" s="10"/>
+      <c r="AW216" s="10"/>
+      <c r="AX216" s="10"/>
+      <c r="AY216" s="10"/>
+      <c r="AZ216" s="10"/>
+      <c r="BA216" s="10"/>
+      <c r="BB216" s="10"/>
+      <c r="BC216" s="10"/>
+      <c r="BD216" s="10"/>
+      <c r="BE216" s="10"/>
+      <c r="BF216" s="10"/>
+      <c r="BG216" s="10"/>
     </row>
     <row r="217" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
@@ -38345,12 +38378,12 @@
       <c r="AI217" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ217" s="12"/>
-      <c r="AK217" s="12"/>
-      <c r="AL217" s="12"/>
-      <c r="AM217" s="12"/>
-      <c r="AN217" s="12"/>
-      <c r="AO217" s="12"/>
+      <c r="AJ217" s="10"/>
+      <c r="AK217" s="10"/>
+      <c r="AL217" s="10"/>
+      <c r="AM217" s="10"/>
+      <c r="AN217" s="10"/>
+      <c r="AO217" s="10"/>
       <c r="AP217" s="6" t="s">
         <v>0</v>
       </c>
@@ -38363,20 +38396,20 @@
       <c r="AS217" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AT217" s="12"/>
-      <c r="AU217" s="12"/>
-      <c r="AV217" s="12"/>
-      <c r="AW217" s="12"/>
-      <c r="AX217" s="12"/>
-      <c r="AY217" s="12"/>
-      <c r="AZ217" s="12"/>
-      <c r="BA217" s="12"/>
-      <c r="BB217" s="12"/>
-      <c r="BC217" s="12"/>
-      <c r="BD217" s="12"/>
-      <c r="BE217" s="12"/>
-      <c r="BF217" s="12"/>
-      <c r="BG217" s="12"/>
+      <c r="AT217" s="10"/>
+      <c r="AU217" s="10"/>
+      <c r="AV217" s="10"/>
+      <c r="AW217" s="10"/>
+      <c r="AX217" s="10"/>
+      <c r="AY217" s="10"/>
+      <c r="AZ217" s="10"/>
+      <c r="BA217" s="10"/>
+      <c r="BB217" s="10"/>
+      <c r="BC217" s="10"/>
+      <c r="BD217" s="10"/>
+      <c r="BE217" s="10"/>
+      <c r="BF217" s="10"/>
+      <c r="BG217" s="10"/>
     </row>
     <row r="218" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
@@ -38400,8 +38433,8 @@
       <c r="G218" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H218" s="20"/>
-      <c r="I218" s="20"/>
+      <c r="H218" s="17"/>
+      <c r="I218" s="17"/>
       <c r="J218" s="3" t="s">
         <v>0</v>
       </c>
@@ -38435,8 +38468,8 @@
       <c r="T218" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U218" s="12"/>
-      <c r="V218" s="12"/>
+      <c r="U218" s="10"/>
+      <c r="V218" s="10"/>
       <c r="W218" s="6" t="s">
         <v>0</v>
       </c>
@@ -38467,9 +38500,9 @@
       <c r="AF218" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AG218" s="28"/>
-      <c r="AH218" s="28"/>
-      <c r="AI218" s="28"/>
+      <c r="AG218" s="25"/>
+      <c r="AH218" s="25"/>
+      <c r="AI218" s="25"/>
       <c r="AJ218" s="6" t="s">
         <v>0</v>
       </c>
@@ -38500,7 +38533,7 @@
       <c r="AS218" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT218" s="12"/>
+      <c r="AT218" s="10"/>
       <c r="AU218" s="6" t="s">
         <v>0</v>
       </c>
@@ -38531,9 +38564,9 @@
       <c r="BD218" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BE218" s="12"/>
-      <c r="BF218" s="12"/>
-      <c r="BG218" s="12"/>
+      <c r="BE218" s="10"/>
+      <c r="BF218" s="10"/>
+      <c r="BG218" s="10"/>
     </row>
     <row r="219" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
@@ -38721,8 +38754,8 @@
       <c r="B220" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C220" s="20"/>
-      <c r="D220" s="20"/>
+      <c r="C220" s="17"/>
+      <c r="D220" s="17"/>
       <c r="E220" s="3" t="s">
         <v>0</v>
       </c>
@@ -39275,7 +39308,7 @@
       <c r="I223" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J223" s="20"/>
+      <c r="J223" s="17"/>
       <c r="K223" s="3" t="s">
         <v>0</v>
       </c>
@@ -39610,7 +39643,7 @@
       <c r="B225" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C225" s="20"/>
+      <c r="C225" s="17"/>
       <c r="D225" s="3" t="s">
         <v>0</v>
       </c>
@@ -39644,7 +39677,7 @@
       <c r="N225" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="O225" s="20"/>
+      <c r="O225" s="17"/>
       <c r="P225" s="3" t="s">
         <v>0</v>
       </c>
@@ -39666,7 +39699,7 @@
       <c r="V225" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W225" s="12"/>
+      <c r="W225" s="10"/>
       <c r="X225" s="6" t="s">
         <v>0</v>
       </c>
@@ -39679,7 +39712,7 @@
       <c r="AA225" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AB225" s="28"/>
+      <c r="AB225" s="25"/>
       <c r="AC225" s="6" t="s">
         <v>0</v>
       </c>
@@ -39695,7 +39728,7 @@
       <c r="AG225" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AH225" s="28"/>
+      <c r="AH225" s="25"/>
       <c r="AI225" s="6" t="s">
         <v>0</v>
       </c>
@@ -39851,7 +39884,7 @@
       <c r="Z226" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AA226" s="28"/>
+      <c r="AA226" s="25"/>
       <c r="AB226" s="8" t="s">
         <v>2</v>
       </c>
@@ -39873,7 +39906,7 @@
       <c r="AH226" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AI226" s="28"/>
+      <c r="AI226" s="25"/>
       <c r="AJ226" s="6" t="s">
         <v>0</v>
       </c>
@@ -40044,8 +40077,8 @@
       <c r="AF227" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AG227" s="28"/>
-      <c r="AH227" s="28"/>
+      <c r="AG227" s="25"/>
+      <c r="AH227" s="25"/>
       <c r="AI227" s="6" t="s">
         <v>0</v>
       </c>
@@ -40094,9 +40127,9 @@
       <c r="AX227" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AY227" s="12"/>
-      <c r="AZ227" s="12"/>
-      <c r="BA227" s="12"/>
+      <c r="AY227" s="10"/>
+      <c r="AZ227" s="10"/>
+      <c r="BA227" s="10"/>
       <c r="BB227" s="8" t="s">
         <v>2</v>
       </c>
@@ -40273,7 +40306,7 @@
       <c r="AZ228" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BA228" s="12"/>
+      <c r="BA228" s="10"/>
       <c r="BB228" s="6" t="s">
         <v>0</v>
       </c>
@@ -40318,7 +40351,7 @@
       <c r="H229" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I229" s="20"/>
+      <c r="I229" s="17"/>
       <c r="J229" s="4" t="s">
         <v>1</v>
       </c>
@@ -40367,7 +40400,7 @@
       <c r="Y229" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Z229" s="28"/>
+      <c r="Z229" s="25"/>
       <c r="AA229" s="6" t="s">
         <v>0</v>
       </c>
@@ -40380,7 +40413,7 @@
       <c r="AD229" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AE229" s="28"/>
+      <c r="AE229" s="25"/>
       <c r="AF229" s="6" t="s">
         <v>0</v>
       </c>
@@ -40423,11 +40456,11 @@
       <c r="AS229" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AT229" s="12"/>
-      <c r="AU229" s="12"/>
-      <c r="AV229" s="12"/>
-      <c r="AW229" s="12"/>
-      <c r="AX229" s="12"/>
+      <c r="AT229" s="10"/>
+      <c r="AU229" s="10"/>
+      <c r="AV229" s="10"/>
+      <c r="AW229" s="10"/>
+      <c r="AX229" s="10"/>
       <c r="AY229" s="6" t="s">
         <v>0</v>
       </c>
@@ -40463,11 +40496,11 @@
       <c r="B230" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C230" s="20"/>
-      <c r="D230" s="20"/>
-      <c r="E230" s="20"/>
-      <c r="F230" s="20"/>
-      <c r="G230" s="20"/>
+      <c r="C230" s="17"/>
+      <c r="D230" s="17"/>
+      <c r="E230" s="17"/>
+      <c r="F230" s="17"/>
+      <c r="G230" s="17"/>
       <c r="H230" s="3" t="s">
         <v>0</v>
       </c>
@@ -40504,7 +40537,7 @@
       <c r="S230" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T230" s="20"/>
+      <c r="T230" s="17"/>
       <c r="U230" s="6" t="s">
         <v>0</v>
       </c>
@@ -40532,7 +40565,7 @@
       <c r="AC230" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AD230" s="28"/>
+      <c r="AD230" s="25"/>
       <c r="AE230" s="7" t="s">
         <v>1</v>
       </c>
@@ -40548,16 +40581,16 @@
       <c r="AI230" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ230" s="12"/>
-      <c r="AK230" s="12"/>
-      <c r="AL230" s="12"/>
-      <c r="AM230" s="12"/>
-      <c r="AN230" s="12"/>
-      <c r="AO230" s="12"/>
-      <c r="AP230" s="12"/>
-      <c r="AQ230" s="12"/>
-      <c r="AR230" s="12"/>
-      <c r="AS230" s="12"/>
+      <c r="AJ230" s="10"/>
+      <c r="AK230" s="10"/>
+      <c r="AL230" s="10"/>
+      <c r="AM230" s="10"/>
+      <c r="AN230" s="10"/>
+      <c r="AO230" s="10"/>
+      <c r="AP230" s="10"/>
+      <c r="AQ230" s="10"/>
+      <c r="AR230" s="10"/>
+      <c r="AS230" s="10"/>
       <c r="AT230" s="7" t="s">
         <v>1</v>
       </c>
@@ -40707,20 +40740,20 @@
       <c r="AI231" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ231" s="12"/>
-      <c r="AK231" s="12"/>
+      <c r="AJ231" s="10"/>
+      <c r="AK231" s="10"/>
       <c r="AL231" s="6" t="s">
         <v>0</v>
       </c>
       <c r="AM231" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AN231" s="12"/>
-      <c r="AO231" s="12"/>
-      <c r="AP231" s="12"/>
-      <c r="AQ231" s="12"/>
-      <c r="AR231" s="12"/>
-      <c r="AS231" s="12"/>
+      <c r="AN231" s="10"/>
+      <c r="AO231" s="10"/>
+      <c r="AP231" s="10"/>
+      <c r="AQ231" s="10"/>
+      <c r="AR231" s="10"/>
+      <c r="AS231" s="10"/>
       <c r="AT231" s="6" t="s">
         <v>0</v>
       </c>
@@ -41150,7 +41183,7 @@
       <c r="I234" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="J234" s="20"/>
+      <c r="J234" s="17"/>
       <c r="K234" s="3" t="s">
         <v>0</v>
       </c>
@@ -41283,11 +41316,11 @@
       <c r="BB234" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BC234" s="12"/>
-      <c r="BD234" s="12"/>
-      <c r="BE234" s="12"/>
-      <c r="BF234" s="12"/>
-      <c r="BG234" s="12"/>
+      <c r="BC234" s="10"/>
+      <c r="BD234" s="10"/>
+      <c r="BE234" s="10"/>
+      <c r="BF234" s="10"/>
+      <c r="BG234" s="10"/>
     </row>
     <row r="235" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
@@ -41416,7 +41449,7 @@
       <c r="AP235" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AQ235" s="12"/>
+      <c r="AQ235" s="10"/>
       <c r="AR235" s="7" t="s">
         <v>1</v>
       </c>
@@ -41462,7 +41495,7 @@
       <c r="BF235" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG235" s="12"/>
+      <c r="BG235" s="10"/>
     </row>
     <row r="236" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
@@ -41591,14 +41624,14 @@
       <c r="AP236" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AQ236" s="12"/>
+      <c r="AQ236" s="10"/>
       <c r="AR236" s="7" t="s">
         <v>1</v>
       </c>
       <c r="AS236" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT236" s="12"/>
+      <c r="AT236" s="10"/>
       <c r="AU236" s="6" t="s">
         <v>0</v>
       </c>
@@ -41611,7 +41644,7 @@
       <c r="AX236" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AY236" s="12"/>
+      <c r="AY236" s="10"/>
       <c r="AZ236" s="7" t="s">
         <v>1</v>
       </c>
@@ -41627,7 +41660,7 @@
       <c r="BD236" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BE236" s="12"/>
+      <c r="BE236" s="10"/>
       <c r="BF236" s="8" t="s">
         <v>2</v>
       </c>
@@ -42030,7 +42063,7 @@
       <c r="L239" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M239" s="20"/>
+      <c r="M239" s="17"/>
       <c r="N239" s="3" t="s">
         <v>0</v>
       </c>
@@ -42201,11 +42234,11 @@
       <c r="J240" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K240" s="20"/>
+      <c r="K240" s="17"/>
       <c r="L240" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M240" s="20"/>
+      <c r="M240" s="17"/>
       <c r="N240" s="3" t="s">
         <v>0</v>
       </c>
@@ -42263,7 +42296,7 @@
       <c r="AF240" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AG240" s="28"/>
+      <c r="AG240" s="25"/>
       <c r="AH240" s="6" t="s">
         <v>0</v>
       </c>
@@ -42333,11 +42366,11 @@
       <c r="BD240" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BE240" s="12"/>
+      <c r="BE240" s="10"/>
       <c r="BF240" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG240" s="12"/>
+      <c r="BG240" s="10"/>
     </row>
     <row r="241" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
@@ -42657,7 +42690,7 @@
       <c r="AT242" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AU242" s="12"/>
+      <c r="AU242" s="10"/>
       <c r="AV242" s="6" t="s">
         <v>0</v>
       </c>
@@ -42702,7 +42735,7 @@
       <c r="B243" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C243" s="20"/>
+      <c r="C243" s="17"/>
       <c r="D243" s="3" t="s">
         <v>0</v>
       </c>
@@ -42715,7 +42748,7 @@
       <c r="G243" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H243" s="20"/>
+      <c r="H243" s="17"/>
       <c r="I243" s="4" t="s">
         <v>1</v>
       </c>
@@ -42937,8 +42970,8 @@
       <c r="V244" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W244" s="12"/>
-      <c r="X244" s="12"/>
+      <c r="W244" s="10"/>
+      <c r="X244" s="10"/>
       <c r="Y244" s="6" t="s">
         <v>0</v>
       </c>
@@ -42972,7 +43005,7 @@
       <c r="AI244" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ244" s="12"/>
+      <c r="AJ244" s="10"/>
       <c r="AK244" s="7" t="s">
         <v>1</v>
       </c>
@@ -43021,15 +43054,15 @@
       <c r="AZ244" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BA244" s="12"/>
-      <c r="BB244" s="12"/>
+      <c r="BA244" s="10"/>
+      <c r="BB244" s="10"/>
       <c r="BC244" s="6" t="s">
         <v>0</v>
       </c>
       <c r="BD244" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BE244" s="12"/>
+      <c r="BE244" s="10"/>
       <c r="BF244" s="6" t="s">
         <v>0</v>
       </c>
@@ -43197,7 +43230,7 @@
       <c r="BA245" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BB245" s="12"/>
+      <c r="BB245" s="10"/>
       <c r="BC245" s="6" t="s">
         <v>0</v>
       </c>
@@ -43383,9 +43416,9 @@
       <c r="BD246" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BE246" s="12"/>
-      <c r="BF246" s="12"/>
-      <c r="BG246" s="12"/>
+      <c r="BE246" s="10"/>
+      <c r="BF246" s="10"/>
+      <c r="BG246" s="10"/>
     </row>
     <row r="247" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
@@ -43550,11 +43583,11 @@
       <c r="BB247" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="BC247" s="12"/>
-      <c r="BD247" s="12"/>
-      <c r="BE247" s="12"/>
-      <c r="BF247" s="12"/>
-      <c r="BG247" s="12"/>
+      <c r="BC247" s="10"/>
+      <c r="BD247" s="10"/>
+      <c r="BE247" s="10"/>
+      <c r="BF247" s="10"/>
+      <c r="BG247" s="10"/>
     </row>
     <row r="248" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
@@ -43751,7 +43784,7 @@
       <c r="E249" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F249" s="20"/>
+      <c r="F249" s="17"/>
       <c r="G249" s="3" t="s">
         <v>0</v>
       </c>
@@ -43803,7 +43836,7 @@
       <c r="W249" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="X249" s="12"/>
+      <c r="X249" s="10"/>
       <c r="Y249" s="6" t="s">
         <v>0</v>
       </c>
@@ -43882,7 +43915,7 @@
       <c r="AX249" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AY249" s="12"/>
+      <c r="AY249" s="10"/>
       <c r="AZ249" s="7" t="s">
         <v>1</v>
       </c>
@@ -43892,11 +43925,11 @@
       <c r="BB249" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BC249" s="12"/>
-      <c r="BD249" s="12"/>
-      <c r="BE249" s="12"/>
-      <c r="BF249" s="12"/>
-      <c r="BG249" s="12"/>
+      <c r="BC249" s="10"/>
+      <c r="BD249" s="10"/>
+      <c r="BE249" s="10"/>
+      <c r="BF249" s="10"/>
+      <c r="BG249" s="10"/>
     </row>
     <row r="250" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
@@ -43959,7 +43992,7 @@
       <c r="T250" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U250" s="12"/>
+      <c r="U250" s="10"/>
       <c r="V250" s="6" t="s">
         <v>0</v>
       </c>
@@ -44020,8 +44053,8 @@
       <c r="AO250" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AP250" s="12"/>
-      <c r="AQ250" s="12"/>
+      <c r="AP250" s="10"/>
+      <c r="AQ250" s="10"/>
       <c r="AR250" s="6" t="s">
         <v>0</v>
       </c>
@@ -44207,10 +44240,10 @@
       <c r="AS251" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT251" s="12"/>
-      <c r="AU251" s="12"/>
-      <c r="AV251" s="12"/>
-      <c r="AW251" s="12"/>
+      <c r="AT251" s="10"/>
+      <c r="AU251" s="10"/>
+      <c r="AV251" s="10"/>
+      <c r="AW251" s="10"/>
       <c r="AX251" s="7" t="s">
         <v>1</v>
       </c>
@@ -44235,8 +44268,8 @@
       <c r="BE251" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BF251" s="12"/>
-      <c r="BG251" s="12"/>
+      <c r="BF251" s="10"/>
+      <c r="BG251" s="10"/>
     </row>
     <row r="252" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
@@ -44478,8 +44511,8 @@
       <c r="T253" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U253" s="12"/>
-      <c r="V253" s="12"/>
+      <c r="U253" s="10"/>
+      <c r="V253" s="10"/>
       <c r="W253" s="7" t="s">
         <v>1</v>
       </c>
@@ -44519,12 +44552,12 @@
       <c r="AI253" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ253" s="12"/>
-      <c r="AK253" s="12"/>
-      <c r="AL253" s="12"/>
-      <c r="AM253" s="12"/>
-      <c r="AN253" s="12"/>
-      <c r="AO253" s="12"/>
+      <c r="AJ253" s="10"/>
+      <c r="AK253" s="10"/>
+      <c r="AL253" s="10"/>
+      <c r="AM253" s="10"/>
+      <c r="AN253" s="10"/>
+      <c r="AO253" s="10"/>
       <c r="AP253" s="6" t="s">
         <v>0</v>
       </c>
@@ -45101,11 +45134,11 @@
       <c r="BB256" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="BC256" s="12"/>
-      <c r="BD256" s="12"/>
-      <c r="BE256" s="12"/>
-      <c r="BF256" s="12"/>
-      <c r="BG256" s="12"/>
+      <c r="BC256" s="10"/>
+      <c r="BD256" s="10"/>
+      <c r="BE256" s="10"/>
+      <c r="BF256" s="10"/>
+      <c r="BG256" s="10"/>
     </row>
     <row r="257" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
@@ -45153,11 +45186,11 @@
       <c r="O257" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P257" s="20"/>
-      <c r="Q257" s="20"/>
-      <c r="R257" s="20"/>
-      <c r="S257" s="20"/>
-      <c r="T257" s="20"/>
+      <c r="P257" s="17"/>
+      <c r="Q257" s="17"/>
+      <c r="R257" s="17"/>
+      <c r="S257" s="17"/>
+      <c r="T257" s="17"/>
       <c r="U257" s="6" t="s">
         <v>0</v>
       </c>
@@ -45167,8 +45200,8 @@
       <c r="W257" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="X257" s="12"/>
-      <c r="Y257" s="12"/>
+      <c r="X257" s="10"/>
+      <c r="Y257" s="10"/>
       <c r="Z257" s="6" t="s">
         <v>0</v>
       </c>
@@ -45196,7 +45229,7 @@
       <c r="AH257" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AI257" s="28"/>
+      <c r="AI257" s="25"/>
       <c r="AJ257" s="6" t="s">
         <v>0</v>
       </c>
@@ -45242,19 +45275,19 @@
       <c r="AX257" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AY257" s="12"/>
-      <c r="AZ257" s="12"/>
-      <c r="BA257" s="12"/>
-      <c r="BB257" s="12"/>
+      <c r="AY257" s="10"/>
+      <c r="AZ257" s="10"/>
+      <c r="BA257" s="10"/>
+      <c r="BB257" s="10"/>
       <c r="BC257" s="6" t="s">
         <v>0</v>
       </c>
       <c r="BD257" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BE257" s="12"/>
-      <c r="BF257" s="12"/>
-      <c r="BG257" s="12"/>
+      <c r="BE257" s="10"/>
+      <c r="BF257" s="10"/>
+      <c r="BG257" s="10"/>
     </row>
     <row r="258" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
@@ -45362,16 +45395,16 @@
       <c r="AI258" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AJ258" s="12"/>
-      <c r="AK258" s="12"/>
-      <c r="AL258" s="12"/>
-      <c r="AM258" s="12"/>
-      <c r="AN258" s="12"/>
-      <c r="AO258" s="12"/>
-      <c r="AP258" s="12"/>
-      <c r="AQ258" s="12"/>
-      <c r="AR258" s="12"/>
-      <c r="AS258" s="12"/>
+      <c r="AJ258" s="10"/>
+      <c r="AK258" s="10"/>
+      <c r="AL258" s="10"/>
+      <c r="AM258" s="10"/>
+      <c r="AN258" s="10"/>
+      <c r="AO258" s="10"/>
+      <c r="AP258" s="10"/>
+      <c r="AQ258" s="10"/>
+      <c r="AR258" s="10"/>
+      <c r="AS258" s="10"/>
       <c r="AT258" s="6" t="s">
         <v>0</v>
       </c>
@@ -45494,9 +45527,9 @@
       <c r="Z259" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AA259" s="28"/>
-      <c r="AB259" s="28"/>
-      <c r="AC259" s="28"/>
+      <c r="AA259" s="25"/>
+      <c r="AB259" s="25"/>
+      <c r="AC259" s="25"/>
       <c r="AD259" s="6" t="s">
         <v>0</v>
       </c>
@@ -45649,8 +45682,8 @@
       <c r="T260" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U260" s="12"/>
-      <c r="V260" s="12"/>
+      <c r="U260" s="10"/>
+      <c r="V260" s="10"/>
       <c r="W260" s="6" t="s">
         <v>0</v>
       </c>
@@ -46021,7 +46054,7 @@
       <c r="Z262" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AA262" s="28"/>
+      <c r="AA262" s="25"/>
       <c r="AB262" s="6" t="s">
         <v>0</v>
       </c>
@@ -46064,7 +46097,7 @@
       <c r="AO262" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AP262" s="12"/>
+      <c r="AP262" s="10"/>
       <c r="AQ262" s="6" t="s">
         <v>0</v>
       </c>
@@ -46107,11 +46140,11 @@
       <c r="BD262" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="BE262" s="12"/>
+      <c r="BE262" s="10"/>
       <c r="BF262" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG262" s="12"/>
+      <c r="BG262" s="10"/>
     </row>
     <row r="263" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
@@ -46171,7 +46204,7 @@
       <c r="S263" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T263" s="20"/>
+      <c r="T263" s="17"/>
       <c r="U263" s="6" t="s">
         <v>0</v>
       </c>
@@ -46226,7 +46259,7 @@
       <c r="AL263" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="AM263" s="12"/>
+      <c r="AM263" s="10"/>
       <c r="AN263" s="6" t="s">
         <v>0</v>
       </c>
@@ -46272,11 +46305,11 @@
       <c r="BB263" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC263" s="12"/>
-      <c r="BD263" s="12"/>
-      <c r="BE263" s="12"/>
-      <c r="BF263" s="12"/>
-      <c r="BG263" s="12"/>
+      <c r="BC263" s="10"/>
+      <c r="BD263" s="10"/>
+      <c r="BE263" s="10"/>
+      <c r="BF263" s="10"/>
+      <c r="BG263" s="10"/>
     </row>
     <row r="264" spans="1:59" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
@@ -46336,7 +46369,7 @@
       <c r="S264" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="T264" s="20"/>
+      <c r="T264" s="17"/>
       <c r="U264" s="8" t="s">
         <v>2</v>
       </c>
@@ -46462,41 +46495,41 @@
       <c r="B265" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C265" s="20"/>
-      <c r="D265" s="20"/>
-      <c r="E265" s="20"/>
-      <c r="F265" s="20"/>
-      <c r="G265" s="20"/>
-      <c r="H265" s="20"/>
-      <c r="I265" s="20"/>
-      <c r="J265" s="20"/>
-      <c r="K265" s="20"/>
-      <c r="L265" s="20"/>
-      <c r="M265" s="20"/>
-      <c r="N265" s="20"/>
-      <c r="O265" s="20"/>
-      <c r="P265" s="20"/>
-      <c r="Q265" s="20"/>
-      <c r="R265" s="20"/>
-      <c r="S265" s="20"/>
-      <c r="T265" s="20"/>
-      <c r="U265" s="12"/>
+      <c r="C265" s="17"/>
+      <c r="D265" s="17"/>
+      <c r="E265" s="17"/>
+      <c r="F265" s="17"/>
+      <c r="G265" s="17"/>
+      <c r="H265" s="17"/>
+      <c r="I265" s="17"/>
+      <c r="J265" s="17"/>
+      <c r="K265" s="17"/>
+      <c r="L265" s="17"/>
+      <c r="M265" s="17"/>
+      <c r="N265" s="17"/>
+      <c r="O265" s="17"/>
+      <c r="P265" s="17"/>
+      <c r="Q265" s="17"/>
+      <c r="R265" s="17"/>
+      <c r="S265" s="17"/>
+      <c r="T265" s="17"/>
+      <c r="U265" s="10"/>
       <c r="V265" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="W265" s="12"/>
-      <c r="X265" s="12"/>
-      <c r="Y265" s="12"/>
-      <c r="Z265" s="28"/>
-      <c r="AA265" s="28"/>
-      <c r="AB265" s="28"/>
-      <c r="AC265" s="28"/>
-      <c r="AD265" s="28"/>
-      <c r="AE265" s="28"/>
-      <c r="AF265" s="28"/>
-      <c r="AG265" s="28"/>
-      <c r="AH265" s="28"/>
-      <c r="AI265" s="28"/>
+      <c r="W265" s="10"/>
+      <c r="X265" s="10"/>
+      <c r="Y265" s="10"/>
+      <c r="Z265" s="25"/>
+      <c r="AA265" s="25"/>
+      <c r="AB265" s="25"/>
+      <c r="AC265" s="25"/>
+      <c r="AD265" s="25"/>
+      <c r="AE265" s="25"/>
+      <c r="AF265" s="25"/>
+      <c r="AG265" s="25"/>
+      <c r="AH265" s="25"/>
+      <c r="AI265" s="25"/>
       <c r="AJ265" s="8" t="s">
         <v>2</v>
       </c>
@@ -46607,7 +46640,7 @@
       <c r="L266" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M266" s="20"/>
+      <c r="M266" s="17"/>
       <c r="N266" s="3" t="s">
         <v>0</v>
       </c>
@@ -46656,7 +46689,7 @@
       <c r="AC266" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AD266" s="28"/>
+      <c r="AD266" s="25"/>
       <c r="AE266" s="6" t="s">
         <v>0</v>
       </c>
@@ -46729,8 +46762,8 @@
       <c r="BB266" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BC266" s="12"/>
-      <c r="BD266" s="12"/>
+      <c r="BC266" s="10"/>
+      <c r="BD266" s="10"/>
       <c r="BE266" s="6" t="s">
         <v>0</v>
       </c>
@@ -46763,7 +46796,7 @@
       <c r="G267" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H267" s="20"/>
+      <c r="H267" s="17"/>
       <c r="I267" s="4" t="s">
         <v>1</v>
       </c>
@@ -46919,47 +46952,47 @@
       </c>
     </row>
     <row r="268" spans="1:59" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="13" t="s">
+      <c r="A268" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B268" s="12" t="s">
+      <c r="B268" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C268" s="20"/>
-      <c r="D268" s="20"/>
-      <c r="E268" s="20"/>
-      <c r="F268" s="20"/>
-      <c r="G268" s="20"/>
-      <c r="H268" s="20"/>
-      <c r="I268" s="20"/>
-      <c r="J268" s="20"/>
-      <c r="K268" s="20"/>
-      <c r="L268" s="20"/>
-      <c r="M268" s="20"/>
-      <c r="N268" s="20"/>
-      <c r="O268" s="20"/>
-      <c r="P268" s="20"/>
-      <c r="Q268" s="20"/>
-      <c r="R268" s="20"/>
-      <c r="S268" s="20"/>
-      <c r="T268" s="20"/>
+      <c r="C268" s="17"/>
+      <c r="D268" s="17"/>
+      <c r="E268" s="17"/>
+      <c r="F268" s="17"/>
+      <c r="G268" s="17"/>
+      <c r="H268" s="17"/>
+      <c r="I268" s="17"/>
+      <c r="J268" s="17"/>
+      <c r="K268" s="17"/>
+      <c r="L268" s="17"/>
+      <c r="M268" s="17"/>
+      <c r="N268" s="17"/>
+      <c r="O268" s="17"/>
+      <c r="P268" s="17"/>
+      <c r="Q268" s="17"/>
+      <c r="R268" s="17"/>
+      <c r="S268" s="17"/>
+      <c r="T268" s="17"/>
       <c r="U268" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="V268" s="12"/>
-      <c r="W268" s="12"/>
-      <c r="X268" s="12"/>
-      <c r="Y268" s="12"/>
-      <c r="Z268" s="28"/>
-      <c r="AA268" s="28"/>
-      <c r="AB268" s="28"/>
-      <c r="AC268" s="28"/>
-      <c r="AD268" s="28"/>
-      <c r="AE268" s="28"/>
-      <c r="AF268" s="28"/>
-      <c r="AG268" s="28"/>
-      <c r="AH268" s="28"/>
-      <c r="AI268" s="28"/>
+      <c r="V268" s="10"/>
+      <c r="W268" s="10"/>
+      <c r="X268" s="10"/>
+      <c r="Y268" s="10"/>
+      <c r="Z268" s="25"/>
+      <c r="AA268" s="25"/>
+      <c r="AB268" s="25"/>
+      <c r="AC268" s="25"/>
+      <c r="AD268" s="25"/>
+      <c r="AE268" s="25"/>
+      <c r="AF268" s="25"/>
+      <c r="AG268" s="25"/>
+      <c r="AH268" s="25"/>
+      <c r="AI268" s="25"/>
       <c r="AJ268" s="8" t="s">
         <v>2</v>
       </c>
@@ -46990,961 +47023,961 @@
       <c r="AS268" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AT268" s="12"/>
-      <c r="AU268" s="12"/>
-      <c r="AV268" s="12"/>
-      <c r="AW268" s="12"/>
-      <c r="AX268" s="12"/>
-      <c r="AY268" s="12"/>
-      <c r="AZ268" s="12"/>
-      <c r="BA268" s="12"/>
-      <c r="BB268" s="12"/>
-      <c r="BC268" s="12"/>
-      <c r="BD268" s="12"/>
+      <c r="AT268" s="10"/>
+      <c r="AU268" s="10"/>
+      <c r="AV268" s="10"/>
+      <c r="AW268" s="10"/>
+      <c r="AX268" s="10"/>
+      <c r="AY268" s="10"/>
+      <c r="AZ268" s="10"/>
+      <c r="BA268" s="10"/>
+      <c r="BB268" s="10"/>
+      <c r="BC268" s="10"/>
+      <c r="BD268" s="10"/>
       <c r="BE268" s="6" t="s">
         <v>0</v>
       </c>
       <c r="BF268" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="BG268" s="12"/>
+      <c r="BG268" s="10"/>
     </row>
     <row r="269" spans="1:59" x14ac:dyDescent="0.15">
-      <c r="A269" s="12"/>
-      <c r="B269" s="12"/>
-      <c r="C269" s="12"/>
-      <c r="D269" s="12"/>
-      <c r="E269" s="12"/>
-      <c r="F269" s="12"/>
-      <c r="G269" s="12"/>
-      <c r="H269" s="12"/>
-      <c r="I269" s="12"/>
-      <c r="J269" s="12"/>
-      <c r="K269" s="12"/>
-      <c r="L269" s="12"/>
-      <c r="M269" s="12"/>
-      <c r="N269" s="12"/>
-      <c r="O269" s="12"/>
-      <c r="P269" s="12"/>
-      <c r="Q269" s="12"/>
-      <c r="R269" s="12"/>
-      <c r="S269" s="12"/>
-      <c r="T269" s="12"/>
-      <c r="U269" s="12"/>
-      <c r="V269" s="12"/>
-      <c r="W269" s="12"/>
-      <c r="X269" s="12"/>
-      <c r="Y269" s="12"/>
-      <c r="Z269" s="24"/>
-      <c r="AA269" s="24"/>
-      <c r="AB269" s="24"/>
-      <c r="AC269" s="24"/>
-      <c r="AD269" s="24"/>
-      <c r="AE269" s="24"/>
-      <c r="AF269" s="24"/>
-      <c r="AG269" s="24"/>
-      <c r="AH269" s="24"/>
-      <c r="AI269" s="24"/>
-      <c r="AJ269" s="24"/>
-      <c r="AK269" s="24"/>
-      <c r="AL269" s="24"/>
-      <c r="AM269" s="24"/>
-      <c r="AN269" s="24"/>
-      <c r="AO269" s="24"/>
-      <c r="AP269" s="24"/>
-      <c r="AQ269" s="24"/>
-      <c r="AR269" s="24"/>
-      <c r="AS269" s="24"/>
-      <c r="AT269" s="24"/>
-      <c r="AU269" s="24"/>
-      <c r="AV269" s="24"/>
-      <c r="AW269" s="24"/>
-      <c r="AX269" s="24"/>
-      <c r="AY269" s="24"/>
-      <c r="AZ269" s="24"/>
-      <c r="BA269" s="24"/>
-      <c r="BB269" s="24"/>
-      <c r="BC269" s="24"/>
-      <c r="BD269" s="24"/>
-      <c r="BE269" s="24"/>
-      <c r="BF269" s="24"/>
-      <c r="BG269" s="24"/>
+      <c r="A269" s="10"/>
+      <c r="B269" s="10"/>
+      <c r="C269" s="10"/>
+      <c r="D269" s="10"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="10"/>
+      <c r="G269" s="10"/>
+      <c r="H269" s="10"/>
+      <c r="I269" s="10"/>
+      <c r="J269" s="10"/>
+      <c r="K269" s="10"/>
+      <c r="L269" s="10"/>
+      <c r="M269" s="10"/>
+      <c r="N269" s="10"/>
+      <c r="O269" s="10"/>
+      <c r="P269" s="10"/>
+      <c r="Q269" s="10"/>
+      <c r="R269" s="10"/>
+      <c r="S269" s="10"/>
+      <c r="T269" s="10"/>
+      <c r="U269" s="10"/>
+      <c r="V269" s="10"/>
+      <c r="W269" s="10"/>
+      <c r="X269" s="10"/>
+      <c r="Y269" s="10"/>
+      <c r="Z269" s="21"/>
+      <c r="AA269" s="21"/>
+      <c r="AB269" s="21"/>
+      <c r="AC269" s="21"/>
+      <c r="AD269" s="21"/>
+      <c r="AE269" s="21"/>
+      <c r="AF269" s="21"/>
+      <c r="AG269" s="21"/>
+      <c r="AH269" s="21"/>
+      <c r="AI269" s="21"/>
+      <c r="AJ269" s="21"/>
+      <c r="AK269" s="21"/>
+      <c r="AL269" s="21"/>
+      <c r="AM269" s="21"/>
+      <c r="AN269" s="21"/>
+      <c r="AO269" s="21"/>
+      <c r="AP269" s="21"/>
+      <c r="AQ269" s="21"/>
+      <c r="AR269" s="21"/>
+      <c r="AS269" s="21"/>
+      <c r="AT269" s="21"/>
+      <c r="AU269" s="21"/>
+      <c r="AV269" s="21"/>
+      <c r="AW269" s="21"/>
+      <c r="AX269" s="21"/>
+      <c r="AY269" s="21"/>
+      <c r="AZ269" s="21"/>
+      <c r="BA269" s="21"/>
+      <c r="BB269" s="21"/>
+      <c r="BC269" s="21"/>
+      <c r="BD269" s="21"/>
+      <c r="BE269" s="21"/>
+      <c r="BF269" s="21"/>
+      <c r="BG269" s="21"/>
     </row>
     <row r="270" spans="1:59" ht="16" x14ac:dyDescent="0.2">
-      <c r="A270" s="12"/>
-      <c r="B270" s="12"/>
-      <c r="C270" s="21" t="s">
+      <c r="A270" s="10"/>
+      <c r="B270" s="10"/>
+      <c r="C270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D270" s="21" t="s">
+      <c r="D270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E270" s="21" t="s">
+      <c r="E270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F270" s="21" t="s">
+      <c r="F270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G270" s="21" t="s">
+      <c r="G270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H270" s="21" t="s">
+      <c r="H270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I270" s="21" t="s">
+      <c r="I270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J270" s="21" t="s">
+      <c r="J270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K270" s="21" t="s">
+      <c r="K270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="L270" s="21" t="s">
+      <c r="L270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="M270" s="21" t="s">
+      <c r="M270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="N270" s="21" t="s">
+      <c r="N270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="O270" s="21" t="s">
+      <c r="O270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="P270" s="21" t="s">
+      <c r="P270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q270" s="21" t="s">
+      <c r="Q270" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="R270" s="21" t="s">
+      <c r="R270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="S270" s="22" t="s">
+      <c r="S270" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="T270" s="23" t="s">
+      <c r="T270" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="U270" s="23" t="s">
+      <c r="U270" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="V270" s="29" t="s">
+      <c r="V270" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="W270" s="23" t="s">
+      <c r="W270" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="X270" s="23" t="s">
+      <c r="X270" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="Y270" s="23" t="s">
+      <c r="Y270" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="Z270" s="21" t="s">
+      <c r="Z270" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="AA270" s="21" t="s">
+      <c r="AA270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AB270" s="21" t="s">
+      <c r="AB270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AC270" s="21" t="s">
+      <c r="AC270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AD270" s="21" t="s">
+      <c r="AD270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AE270" s="21" t="s">
+      <c r="AE270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AF270" s="21" t="s">
+      <c r="AF270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AG270" s="21" t="s">
+      <c r="AG270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AH270" s="21" t="s">
+      <c r="AH270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AI270" s="21" t="s">
+      <c r="AI270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AJ270" s="21" t="s">
+      <c r="AJ270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AK270" s="21" t="s">
+      <c r="AK270" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="AL270" s="21" t="s">
+      <c r="AL270" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="AM270" s="21" t="s">
+      <c r="AM270" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="AN270" s="21" t="s">
+      <c r="AN270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AO270" s="21" t="s">
+      <c r="AO270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AP270" s="21" t="s">
+      <c r="AP270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AQ270" s="21" t="s">
+      <c r="AQ270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AR270" s="21" t="s">
+      <c r="AR270" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="AS270" s="21" t="s">
+      <c r="AS270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AT270" s="21" t="s">
+      <c r="AT270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AU270" s="21" t="s">
+      <c r="AU270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AV270" s="21" t="s">
+      <c r="AV270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AW270" s="21" t="s">
+      <c r="AW270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AX270" s="21" t="s">
+      <c r="AX270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AY270" s="21" t="s">
+      <c r="AY270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AZ270" s="21" t="s">
+      <c r="AZ270" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="BA270" s="21" t="s">
+      <c r="BA270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BB270" s="21" t="s">
+      <c r="BB270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BC270" s="21" t="s">
+      <c r="BC270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BD270" s="21" t="s">
+      <c r="BD270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BE270" s="21" t="s">
+      <c r="BE270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BF270" s="21" t="s">
+      <c r="BF270" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="BG270" s="21" t="s">
+      <c r="BG270" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:59" ht="16" x14ac:dyDescent="0.2">
-      <c r="A271" s="14" t="s">
+      <c r="A271" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B271" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C271" s="24">
+      <c r="B271" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" s="21">
         <f t="shared" ref="C271:BG271" si="0">COUNTIF(C6:C268,"YES")</f>
         <v>239</v>
       </c>
-      <c r="D271" s="24">
+      <c r="D271" s="21">
         <f t="shared" si="0"/>
         <v>239</v>
       </c>
-      <c r="E271" s="24">
+      <c r="E271" s="21">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-      <c r="F271" s="24">
+      <c r="F271" s="21">
         <f t="shared" si="0"/>
         <v>247</v>
       </c>
-      <c r="G271" s="24">
+      <c r="G271" s="21">
         <f t="shared" si="0"/>
         <v>249</v>
       </c>
-      <c r="H271" s="24">
+      <c r="H271" s="21">
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="I271" s="24">
+      <c r="I271" s="21">
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="J271" s="24">
+      <c r="J271" s="21">
         <f t="shared" si="0"/>
         <v>227</v>
       </c>
-      <c r="K271" s="24">
+      <c r="K271" s="21">
         <f t="shared" si="0"/>
         <v>226</v>
       </c>
-      <c r="L271" s="24">
+      <c r="L271" s="21">
         <f t="shared" si="0"/>
         <v>244</v>
       </c>
-      <c r="M271" s="24">
+      <c r="M271" s="21">
         <f t="shared" si="0"/>
         <v>247</v>
       </c>
-      <c r="N271" s="24">
+      <c r="N271" s="21">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="O271" s="24">
+      <c r="O271" s="21">
         <f t="shared" si="0"/>
         <v>244</v>
       </c>
-      <c r="P271" s="24">
+      <c r="P271" s="21">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="Q271" s="24">
+      <c r="Q271" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="R271" s="24">
+      <c r="R271" s="21">
         <f t="shared" si="0"/>
         <v>233</v>
       </c>
-      <c r="S271" s="25">
+      <c r="S271" s="22">
         <f t="shared" si="0"/>
         <v>237</v>
       </c>
-      <c r="T271" s="26">
+      <c r="T271" s="23">
         <f t="shared" si="0"/>
         <v>247</v>
       </c>
-      <c r="U271" s="26">
+      <c r="U271" s="23">
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="V271" s="30">
+      <c r="V271" s="27">
         <f t="shared" si="0"/>
         <v>234</v>
       </c>
-      <c r="W271" s="31">
+      <c r="W271" s="28">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="X271" s="31">
+      <c r="X271" s="28">
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="Y271" s="31">
+      <c r="Y271" s="28">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="Z271" s="24">
+      <c r="Z271" s="21">
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="AA271" s="24">
+      <c r="AA271" s="21">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="AB271" s="24">
+      <c r="AB271" s="21">
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="AC271" s="24">
+      <c r="AC271" s="21">
         <f t="shared" si="0"/>
         <v>149</v>
       </c>
-      <c r="AD271" s="24">
+      <c r="AD271" s="21">
         <f t="shared" si="0"/>
         <v>242</v>
       </c>
-      <c r="AE271" s="24">
+      <c r="AE271" s="21">
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-      <c r="AF271" s="24">
+      <c r="AF271" s="21">
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-      <c r="AG271" s="24">
+      <c r="AG271" s="21">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="AH271" s="24">
+      <c r="AH271" s="21">
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="AI271" s="24">
+      <c r="AI271" s="21">
         <f t="shared" si="0"/>
         <v>235</v>
       </c>
-      <c r="AJ271" s="24">
+      <c r="AJ271" s="21">
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="AK271" s="24">
+      <c r="AK271" s="21">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="AL271" s="24">
+      <c r="AL271" s="21">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="AM271" s="24">
+      <c r="AM271" s="21">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="AN271" s="24">
+      <c r="AN271" s="21">
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="AO271" s="24">
+      <c r="AO271" s="21">
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="AP271" s="24">
+      <c r="AP271" s="21">
         <f t="shared" si="0"/>
         <v>229</v>
       </c>
-      <c r="AQ271" s="24">
+      <c r="AQ271" s="21">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="AR271" s="24">
+      <c r="AR271" s="21">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="AS271" s="24">
+      <c r="AS271" s="21">
         <f t="shared" si="0"/>
         <v>214</v>
       </c>
-      <c r="AT271" s="24">
+      <c r="AT271" s="21">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="AU271" s="24">
+      <c r="AU271" s="21">
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
-      <c r="AV271" s="24">
+      <c r="AV271" s="21">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="AW271" s="24">
+      <c r="AW271" s="21">
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="AX271" s="24">
+      <c r="AX271" s="21">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="AY271" s="24">
+      <c r="AY271" s="21">
         <f t="shared" si="0"/>
         <v>181</v>
       </c>
-      <c r="AZ271" s="24">
+      <c r="AZ271" s="21">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="BA271" s="24">
+      <c r="BA271" s="21">
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="BB271" s="24">
+      <c r="BB271" s="21">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="BC271" s="24">
+      <c r="BC271" s="21">
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
-      <c r="BD271" s="24">
+      <c r="BD271" s="21">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="BE271" s="24">
+      <c r="BE271" s="21">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="BF271" s="24">
+      <c r="BF271" s="21">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="BG271" s="24">
+      <c r="BG271" s="21">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
     </row>
     <row r="272" spans="1:59" ht="16" x14ac:dyDescent="0.2">
-      <c r="A272" s="9"/>
-      <c r="B272" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C272" s="24">
+      <c r="A272" s="31"/>
+      <c r="B272" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" s="21">
         <f t="shared" ref="C272:BG272" si="1">COUNTIF(C6:C268,"NO")</f>
         <v>2</v>
       </c>
-      <c r="D272" s="24">
+      <c r="D272" s="21">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E272" s="24">
+      <c r="E272" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F272" s="24">
+      <c r="F272" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G272" s="24">
+      <c r="G272" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H272" s="24">
+      <c r="H272" s="21">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="I272" s="24">
+      <c r="I272" s="21">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="J272" s="24">
+      <c r="J272" s="21">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="K272" s="24">
+      <c r="K272" s="21">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="L272" s="24">
+      <c r="L272" s="21">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M272" s="24">
+      <c r="M272" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N272" s="24">
+      <c r="N272" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O272" s="24">
+      <c r="O272" s="21">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P272" s="24">
+      <c r="P272" s="21">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="Q272" s="24">
+      <c r="Q272" s="21">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="R272" s="24">
+      <c r="R272" s="21">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="S272" s="25">
+      <c r="S272" s="22">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="T272" s="26">
+      <c r="T272" s="23">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="U272" s="26">
+      <c r="U272" s="23">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="V272" s="32">
+      <c r="V272" s="29">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="W272" s="24">
+      <c r="W272" s="21">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="X272" s="24">
+      <c r="X272" s="21">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="Y272" s="24">
+      <c r="Y272" s="21">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="Z272" s="24">
+      <c r="Z272" s="21">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="AA272" s="24">
+      <c r="AA272" s="21">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="AB272" s="24">
+      <c r="AB272" s="21">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="AC272" s="24">
+      <c r="AC272" s="21">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="AD272" s="24">
+      <c r="AD272" s="21">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="AE272" s="24">
+      <c r="AE272" s="21">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="AF272" s="24">
+      <c r="AF272" s="21">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AG272" s="24">
+      <c r="AG272" s="21">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="AH272" s="24">
+      <c r="AH272" s="21">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="AI272" s="24">
+      <c r="AI272" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ272" s="24">
+      <c r="AJ272" s="21">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="AK272" s="24">
+      <c r="AK272" s="21">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="AL272" s="24">
+      <c r="AL272" s="21">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="AM272" s="24">
+      <c r="AM272" s="21">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="AN272" s="24">
+      <c r="AN272" s="21">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="AO272" s="24">
+      <c r="AO272" s="21">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AP272" s="24">
+      <c r="AP272" s="21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AQ272" s="24">
+      <c r="AQ272" s="21">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="AR272" s="24">
+      <c r="AR272" s="21">
         <f t="shared" si="1"/>
         <v>174</v>
       </c>
-      <c r="AS272" s="24">
+      <c r="AS272" s="21">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="AT272" s="24">
+      <c r="AT272" s="21">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="AU272" s="24">
+      <c r="AU272" s="21">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="AV272" s="24">
+      <c r="AV272" s="21">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="AW272" s="24">
+      <c r="AW272" s="21">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="AX272" s="24">
+      <c r="AX272" s="21">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="AY272" s="24">
+      <c r="AY272" s="21">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="AZ272" s="24">
+      <c r="AZ272" s="21">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
-      <c r="BA272" s="24">
+      <c r="BA272" s="21">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="BB272" s="24">
+      <c r="BB272" s="21">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="BC272" s="24">
+      <c r="BC272" s="21">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="BD272" s="24">
+      <c r="BD272" s="21">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="BE272" s="24">
+      <c r="BE272" s="21">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="BF272" s="24">
+      <c r="BF272" s="21">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="BG272" s="24">
+      <c r="BG272" s="21">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="273" spans="1:59" ht="16" x14ac:dyDescent="0.2">
-      <c r="A273" s="10"/>
-      <c r="B273" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C273" s="24">
+      <c r="A273" s="32"/>
+      <c r="B273" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C273" s="21">
         <f t="shared" ref="C273:BG273" si="2">COUNTIF(C6:C268,"ABSTAIN")</f>
         <v>6</v>
       </c>
-      <c r="D273" s="24">
+      <c r="D273" s="21">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="E273" s="24">
+      <c r="E273" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F273" s="24">
+      <c r="F273" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G273" s="24">
+      <c r="G273" s="21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H273" s="24">
+      <c r="H273" s="21">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="I273" s="24">
+      <c r="I273" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J273" s="24">
+      <c r="J273" s="21">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="K273" s="24">
+      <c r="K273" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L273" s="24">
+      <c r="L273" s="21">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="M273" s="24">
+      <c r="M273" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="N273" s="24">
+      <c r="N273" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="O273" s="24">
+      <c r="O273" s="21">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="P273" s="24">
+      <c r="P273" s="21">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="Q273" s="24">
+      <c r="Q273" s="21">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="R273" s="24">
+      <c r="R273" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="S273" s="25">
+      <c r="S273" s="22">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="T273" s="26">
+      <c r="T273" s="23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U273" s="26">
+      <c r="U273" s="23">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="V273" s="32">
+      <c r="V273" s="29">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="W273" s="24">
+      <c r="W273" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="X273" s="24">
+      <c r="X273" s="21">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="Y273" s="24">
+      <c r="Y273" s="21">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="Z273" s="24">
+      <c r="Z273" s="21">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AA273" s="24">
+      <c r="AA273" s="21">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AB273" s="24">
+      <c r="AB273" s="21">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AC273" s="24">
+      <c r="AC273" s="21">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AD273" s="24">
+      <c r="AD273" s="21">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="AE273" s="24">
+      <c r="AE273" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AF273" s="24">
+      <c r="AF273" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AG273" s="24">
+      <c r="AG273" s="21">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AH273" s="24">
+      <c r="AH273" s="21">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="AI273" s="24">
+      <c r="AI273" s="21">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="AJ273" s="24">
+      <c r="AJ273" s="21">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="AK273" s="24">
+      <c r="AK273" s="21">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="AL273" s="24">
+      <c r="AL273" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AM273" s="24">
+      <c r="AM273" s="21">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="AN273" s="24">
+      <c r="AN273" s="21">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AO273" s="24">
+      <c r="AO273" s="21">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="AP273" s="24">
+      <c r="AP273" s="21">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="AQ273" s="24">
+      <c r="AQ273" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AR273" s="24">
+      <c r="AR273" s="21">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="AS273" s="24">
+      <c r="AS273" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="AT273" s="24">
+      <c r="AT273" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AU273" s="24">
+      <c r="AU273" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AV273" s="24">
+      <c r="AV273" s="21">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="AW273" s="24">
+      <c r="AW273" s="21">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="AX273" s="24">
+      <c r="AX273" s="21">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="AY273" s="24">
+      <c r="AY273" s="21">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="AZ273" s="24">
+      <c r="AZ273" s="21">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="BA273" s="24">
+      <c r="BA273" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="BB273" s="24">
+      <c r="BB273" s="21">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="BC273" s="24">
+      <c r="BC273" s="21">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="BD273" s="24">
+      <c r="BD273" s="21">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="BE273" s="24">
+      <c r="BE273" s="21">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="BF273" s="24">
+      <c r="BF273" s="21">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="BG273" s="24">
+      <c r="BG273" s="21">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
